--- a/Albatross_Raw_Data/Albatross_LWR_Raw_Data.xlsx
+++ b/Albatross_Raw_Data/Albatross_LWR_Raw_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Desktop\Albatross_Raw_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Albatross_Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EE2871-1B0C-4DE3-BEF8-BF877233C395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B06BEF-7B69-48C8-B112-A520AC4F4D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,8 +409,8 @@
   <dimension ref="A1:K545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
+      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M427" sqref="M427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -14950,17 +14950,16 @@
         <v>0.67200000000000004</v>
       </c>
       <c r="E428" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F428" s="2">
         <v>45.4</v>
       </c>
       <c r="G428" s="2">
-        <f t="shared" ref="G428:H428" si="426">E428/10</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H428" s="2">
-        <f t="shared" si="426"/>
+        <f t="shared" ref="G428:H428" si="426">F428/10</f>
         <v>4.54</v>
       </c>
       <c r="I428" s="3" t="s">

--- a/Albatross_Raw_Data/Albatross_LWR_Raw_Data.xlsx
+++ b/Albatross_Raw_Data/Albatross_LWR_Raw_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Albatross_Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA49D1B4-9B17-4245-9F52-AADA1E8C8D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D084F3-A976-4692-B594-0A7617B68A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="37">
   <si>
     <t>Species</t>
   </si>
@@ -129,6 +129,21 @@
   </si>
   <si>
     <t>5_23_2023</t>
+  </si>
+  <si>
+    <t>Hypoatherina_temminckii</t>
+  </si>
+  <si>
+    <t>6_26_2023</t>
+  </si>
+  <si>
+    <t>Taeniamia_fucata</t>
+  </si>
+  <si>
+    <t>6_09_2023</t>
+  </si>
+  <si>
+    <t>Doboatherina_duodecimalis</t>
   </si>
 </sst>
 </file>
@@ -409,11 +424,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K563"/>
+  <dimension ref="A1:K747"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L60" sqref="L60"/>
+      <pane ySplit="1" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A623" sqref="A623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -18665,7 +18680,7 @@
         <v>35.200000000000003</v>
       </c>
       <c r="G537" s="2">
-        <f t="shared" ref="G537:H563" si="472">E537/10</f>
+        <f t="shared" ref="G537:H664" si="472">E537/10</f>
         <v>3.25</v>
       </c>
       <c r="H537" s="2">
@@ -19561,6 +19576,6262 @@
       </c>
       <c r="J563">
         <v>120834</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A564" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B564" s="2">
+        <v>10</v>
+      </c>
+      <c r="C564" s="2">
+        <v>1</v>
+      </c>
+      <c r="D564" s="2">
+        <v>7.2430000000000003</v>
+      </c>
+      <c r="E564" s="2">
+        <v>93.7</v>
+      </c>
+      <c r="F564" s="2">
+        <v>103.7</v>
+      </c>
+      <c r="G564" s="2">
+        <f t="shared" si="472"/>
+        <v>9.370000000000001</v>
+      </c>
+      <c r="H564" s="2">
+        <f t="shared" si="472"/>
+        <v>10.370000000000001</v>
+      </c>
+      <c r="I564" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J564" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A565" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B565" s="2">
+        <v>10</v>
+      </c>
+      <c r="C565" s="2">
+        <v>2</v>
+      </c>
+      <c r="D565" s="2">
+        <v>6.4080000000000004</v>
+      </c>
+      <c r="E565" s="2">
+        <v>87.1</v>
+      </c>
+      <c r="F565" s="2">
+        <v>94.1</v>
+      </c>
+      <c r="G565" s="2">
+        <f t="shared" si="472"/>
+        <v>8.7099999999999991</v>
+      </c>
+      <c r="H565" s="2">
+        <f t="shared" si="472"/>
+        <v>9.41</v>
+      </c>
+      <c r="I565" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J565" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A566" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B566" s="2">
+        <v>10</v>
+      </c>
+      <c r="C566" s="2">
+        <v>3</v>
+      </c>
+      <c r="D566" s="2">
+        <v>6.6929999999999996</v>
+      </c>
+      <c r="E566" s="2">
+        <v>89.8</v>
+      </c>
+      <c r="F566" s="2">
+        <v>103</v>
+      </c>
+      <c r="G566" s="2">
+        <f t="shared" si="472"/>
+        <v>8.98</v>
+      </c>
+      <c r="H566" s="2">
+        <f t="shared" si="472"/>
+        <v>10.3</v>
+      </c>
+      <c r="I566" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J566" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A567" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B567" s="2">
+        <v>10</v>
+      </c>
+      <c r="C567" s="2">
+        <v>4</v>
+      </c>
+      <c r="D567" s="2">
+        <v>7.0640000000000001</v>
+      </c>
+      <c r="E567" s="2">
+        <v>87.5</v>
+      </c>
+      <c r="F567" s="2">
+        <v>101.1</v>
+      </c>
+      <c r="G567" s="2">
+        <f t="shared" si="472"/>
+        <v>8.75</v>
+      </c>
+      <c r="H567" s="2">
+        <f t="shared" si="472"/>
+        <v>10.11</v>
+      </c>
+      <c r="I567" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J567" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A568" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B568" s="2">
+        <v>10</v>
+      </c>
+      <c r="C568" s="2">
+        <v>5</v>
+      </c>
+      <c r="D568" s="2">
+        <v>3.528</v>
+      </c>
+      <c r="E568" s="2">
+        <v>68.5</v>
+      </c>
+      <c r="F568" s="2">
+        <v>78.2</v>
+      </c>
+      <c r="G568" s="2">
+        <f t="shared" si="472"/>
+        <v>6.85</v>
+      </c>
+      <c r="H568" s="2">
+        <f t="shared" si="472"/>
+        <v>7.82</v>
+      </c>
+      <c r="I568" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J568" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A569" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B569" s="2">
+        <v>10</v>
+      </c>
+      <c r="C569" s="2">
+        <v>6</v>
+      </c>
+      <c r="D569" s="2">
+        <v>4.4240000000000004</v>
+      </c>
+      <c r="E569" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="F569" s="2">
+        <v>86.2</v>
+      </c>
+      <c r="G569" s="2">
+        <f t="shared" si="472"/>
+        <v>7.65</v>
+      </c>
+      <c r="H569" s="2">
+        <f t="shared" si="472"/>
+        <v>8.620000000000001</v>
+      </c>
+      <c r="I569" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J569" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A570" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B570" s="2">
+        <v>10</v>
+      </c>
+      <c r="C570" s="2">
+        <v>7</v>
+      </c>
+      <c r="D570" s="2">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E570" s="2">
+        <v>78.3</v>
+      </c>
+      <c r="F570" s="2">
+        <v>88.4</v>
+      </c>
+      <c r="G570" s="2">
+        <f t="shared" si="472"/>
+        <v>7.83</v>
+      </c>
+      <c r="H570" s="2">
+        <f t="shared" si="472"/>
+        <v>8.84</v>
+      </c>
+      <c r="I570" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J570" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A571" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B571" s="2">
+        <v>10</v>
+      </c>
+      <c r="C571" s="2">
+        <v>8</v>
+      </c>
+      <c r="D571" s="2">
+        <v>3.1949999999999998</v>
+      </c>
+      <c r="E571" s="2">
+        <v>70</v>
+      </c>
+      <c r="F571" s="2">
+        <v>78.3</v>
+      </c>
+      <c r="G571" s="2">
+        <f t="shared" si="472"/>
+        <v>7</v>
+      </c>
+      <c r="H571" s="2">
+        <f t="shared" si="472"/>
+        <v>7.83</v>
+      </c>
+      <c r="I571" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J571" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A572" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B572" s="2">
+        <v>10</v>
+      </c>
+      <c r="C572" s="2">
+        <v>9</v>
+      </c>
+      <c r="D572" s="2">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="E572" s="2">
+        <v>66.7</v>
+      </c>
+      <c r="F572" s="2">
+        <v>75.8</v>
+      </c>
+      <c r="G572" s="2">
+        <f t="shared" si="472"/>
+        <v>6.67</v>
+      </c>
+      <c r="H572" s="2">
+        <f t="shared" si="472"/>
+        <v>7.58</v>
+      </c>
+      <c r="I572" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J572" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A573" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B573" s="2">
+        <v>10</v>
+      </c>
+      <c r="C573" s="2">
+        <v>10</v>
+      </c>
+      <c r="D573" s="2">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="E573" s="2">
+        <v>60.9</v>
+      </c>
+      <c r="F573" s="2">
+        <v>70.3</v>
+      </c>
+      <c r="G573" s="2">
+        <f t="shared" si="472"/>
+        <v>6.09</v>
+      </c>
+      <c r="H573" s="2">
+        <f t="shared" si="472"/>
+        <v>7.0299999999999994</v>
+      </c>
+      <c r="I573" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J573" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A574" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B574" s="2">
+        <v>10</v>
+      </c>
+      <c r="C574" s="2">
+        <v>11</v>
+      </c>
+      <c r="D574" s="2">
+        <v>5.056</v>
+      </c>
+      <c r="E574" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="F574" s="2">
+        <v>89.5</v>
+      </c>
+      <c r="G574" s="2">
+        <f t="shared" si="472"/>
+        <v>7.85</v>
+      </c>
+      <c r="H574" s="2">
+        <f t="shared" si="472"/>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I574" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J574" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A575" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B575" s="2">
+        <v>10</v>
+      </c>
+      <c r="C575" s="2">
+        <v>12</v>
+      </c>
+      <c r="D575" s="2">
+        <v>2.133</v>
+      </c>
+      <c r="E575" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="F575" s="2">
+        <v>67.7</v>
+      </c>
+      <c r="G575" s="2">
+        <f t="shared" si="472"/>
+        <v>6.05</v>
+      </c>
+      <c r="H575" s="2">
+        <f t="shared" si="472"/>
+        <v>6.7700000000000005</v>
+      </c>
+      <c r="I575" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J575" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A576" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B576" s="2">
+        <v>10</v>
+      </c>
+      <c r="C576" s="2">
+        <v>13</v>
+      </c>
+      <c r="D576" s="2">
+        <v>3.1659999999999999</v>
+      </c>
+      <c r="E576" s="2">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="F576" s="2">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="G576" s="2">
+        <f t="shared" si="472"/>
+        <v>6.9599999999999991</v>
+      </c>
+      <c r="H576" s="2">
+        <f t="shared" si="472"/>
+        <v>7.8400000000000007</v>
+      </c>
+      <c r="I576" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J576" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A577" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B577" s="2">
+        <v>10</v>
+      </c>
+      <c r="C577" s="2">
+        <v>14</v>
+      </c>
+      <c r="D577" s="2">
+        <v>2.7389999999999999</v>
+      </c>
+      <c r="E577" s="2">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="F577" s="2">
+        <v>74.5</v>
+      </c>
+      <c r="G577" s="2">
+        <f t="shared" si="472"/>
+        <v>6.56</v>
+      </c>
+      <c r="H577" s="2">
+        <f t="shared" si="472"/>
+        <v>7.45</v>
+      </c>
+      <c r="I577" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J577" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A578" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B578" s="2">
+        <v>10</v>
+      </c>
+      <c r="C578" s="2">
+        <v>15</v>
+      </c>
+      <c r="D578" s="2">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="E578" s="2">
+        <v>57.6</v>
+      </c>
+      <c r="F578" s="2">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="G578" s="2">
+        <f t="shared" si="472"/>
+        <v>5.76</v>
+      </c>
+      <c r="H578" s="2">
+        <f t="shared" si="472"/>
+        <v>6.6599999999999993</v>
+      </c>
+      <c r="I578" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J578" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A579" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B579" s="2">
+        <v>10</v>
+      </c>
+      <c r="C579" s="2">
+        <v>16</v>
+      </c>
+      <c r="D579" s="2">
+        <v>2.1110000000000002</v>
+      </c>
+      <c r="E579" s="2">
+        <v>60.8</v>
+      </c>
+      <c r="F579" s="2">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="G579" s="2">
+        <f t="shared" si="472"/>
+        <v>6.08</v>
+      </c>
+      <c r="H579" s="2">
+        <f t="shared" si="472"/>
+        <v>6.8599999999999994</v>
+      </c>
+      <c r="I579" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J579" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A580" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B580" s="2">
+        <v>10</v>
+      </c>
+      <c r="C580" s="2">
+        <v>17</v>
+      </c>
+      <c r="D580" s="2">
+        <v>1.288</v>
+      </c>
+      <c r="E580" s="2">
+        <v>52</v>
+      </c>
+      <c r="F580" s="2">
+        <v>58</v>
+      </c>
+      <c r="G580" s="2">
+        <f t="shared" si="472"/>
+        <v>5.2</v>
+      </c>
+      <c r="H580" s="2">
+        <f t="shared" si="472"/>
+        <v>5.8</v>
+      </c>
+      <c r="I580" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J580" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A581" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B581" s="2">
+        <v>10</v>
+      </c>
+      <c r="C581" s="2">
+        <v>18</v>
+      </c>
+      <c r="D581" s="2">
+        <v>5.375</v>
+      </c>
+      <c r="E581" s="2">
+        <v>80</v>
+      </c>
+      <c r="F581" s="2">
+        <v>92.2</v>
+      </c>
+      <c r="G581" s="2">
+        <f t="shared" si="472"/>
+        <v>8</v>
+      </c>
+      <c r="H581" s="2">
+        <f t="shared" si="472"/>
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="I581" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J581" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A582" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B582" s="2">
+        <v>10</v>
+      </c>
+      <c r="C582" s="2">
+        <v>19</v>
+      </c>
+      <c r="D582" s="2">
+        <v>2.0569999999999999</v>
+      </c>
+      <c r="E582" s="2">
+        <v>59.9</v>
+      </c>
+      <c r="F582" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="G582" s="2">
+        <f t="shared" si="472"/>
+        <v>5.99</v>
+      </c>
+      <c r="H582" s="2">
+        <f t="shared" si="472"/>
+        <v>6.75</v>
+      </c>
+      <c r="I582" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J582" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A583" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B583" s="2">
+        <v>10</v>
+      </c>
+      <c r="C583" s="2">
+        <v>20</v>
+      </c>
+      <c r="D583" s="2">
+        <v>2.472</v>
+      </c>
+      <c r="E583" s="2">
+        <v>63</v>
+      </c>
+      <c r="F583" s="2">
+        <v>72.2</v>
+      </c>
+      <c r="G583" s="2">
+        <f t="shared" si="472"/>
+        <v>6.3</v>
+      </c>
+      <c r="H583" s="2">
+        <f t="shared" si="472"/>
+        <v>7.2200000000000006</v>
+      </c>
+      <c r="I583" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J583" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A584" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B584" s="2">
+        <v>10</v>
+      </c>
+      <c r="C584" s="2">
+        <v>21</v>
+      </c>
+      <c r="D584" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="E584" s="2">
+        <v>58.9</v>
+      </c>
+      <c r="F584" s="2">
+        <v>68.5</v>
+      </c>
+      <c r="G584" s="2">
+        <f t="shared" si="472"/>
+        <v>5.89</v>
+      </c>
+      <c r="H584" s="2">
+        <f t="shared" si="472"/>
+        <v>6.85</v>
+      </c>
+      <c r="I584" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J584" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A585" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B585" s="2">
+        <v>10</v>
+      </c>
+      <c r="C585" s="2">
+        <v>22</v>
+      </c>
+      <c r="D585" s="2">
+        <v>1.9319999999999999</v>
+      </c>
+      <c r="E585" s="2">
+        <v>57.6</v>
+      </c>
+      <c r="F585" s="2">
+        <v>65.7</v>
+      </c>
+      <c r="G585" s="2">
+        <f t="shared" si="472"/>
+        <v>5.76</v>
+      </c>
+      <c r="H585" s="2">
+        <f t="shared" si="472"/>
+        <v>6.57</v>
+      </c>
+      <c r="I585" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J585" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A586" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B586" s="2">
+        <v>10</v>
+      </c>
+      <c r="C586" s="2">
+        <v>23</v>
+      </c>
+      <c r="D586" s="2">
+        <v>1.859</v>
+      </c>
+      <c r="E586" s="2">
+        <v>58.8</v>
+      </c>
+      <c r="F586" s="2">
+        <v>66.7</v>
+      </c>
+      <c r="G586" s="2">
+        <f t="shared" si="472"/>
+        <v>5.88</v>
+      </c>
+      <c r="H586" s="2">
+        <f t="shared" si="472"/>
+        <v>6.67</v>
+      </c>
+      <c r="I586" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J586" s="2">
+        <v>136752</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A587" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B587" s="2">
+        <v>10</v>
+      </c>
+      <c r="C587" s="2">
+        <v>24</v>
+      </c>
+      <c r="D587" s="2">
+        <v>2.8639999999999999</v>
+      </c>
+      <c r="E587" s="2">
+        <v>61.7</v>
+      </c>
+      <c r="F587" s="2">
+        <v>71.8</v>
+      </c>
+      <c r="G587" s="2">
+        <f t="shared" si="472"/>
+        <v>6.17</v>
+      </c>
+      <c r="H587" s="2">
+        <f t="shared" si="472"/>
+        <v>7.18</v>
+      </c>
+      <c r="I587" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J587" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="588" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A588" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B588" s="2">
+        <v>10</v>
+      </c>
+      <c r="C588" s="2">
+        <v>25</v>
+      </c>
+      <c r="D588" s="2">
+        <v>2.6779999999999999</v>
+      </c>
+      <c r="E588" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="F588" s="2">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="G588" s="2">
+        <f t="shared" si="472"/>
+        <v>6.25</v>
+      </c>
+      <c r="H588" s="2">
+        <f t="shared" si="472"/>
+        <v>7.24</v>
+      </c>
+      <c r="I588" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J588" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A589" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B589" s="2">
+        <v>10</v>
+      </c>
+      <c r="C589" s="2">
+        <v>26</v>
+      </c>
+      <c r="D589">
+        <v>4.3719999999999999</v>
+      </c>
+      <c r="E589" s="2">
+        <v>72.2</v>
+      </c>
+      <c r="F589" s="2">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="G589" s="2">
+        <f t="shared" si="472"/>
+        <v>7.2200000000000006</v>
+      </c>
+      <c r="H589" s="2">
+        <f t="shared" si="472"/>
+        <v>8.0599999999999987</v>
+      </c>
+      <c r="I589" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J589" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A590" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B590" s="2">
+        <v>10</v>
+      </c>
+      <c r="C590" s="2">
+        <v>27</v>
+      </c>
+      <c r="D590">
+        <v>3.698</v>
+      </c>
+      <c r="E590" s="2">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="F590" s="2">
+        <v>78</v>
+      </c>
+      <c r="G590" s="2">
+        <f t="shared" si="472"/>
+        <v>6.74</v>
+      </c>
+      <c r="H590" s="2">
+        <f t="shared" si="472"/>
+        <v>7.8</v>
+      </c>
+      <c r="I590" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J590" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A591" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B591" s="2">
+        <v>10</v>
+      </c>
+      <c r="C591" s="2">
+        <v>28</v>
+      </c>
+      <c r="D591" s="2">
+        <v>3.093</v>
+      </c>
+      <c r="E591" s="2">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="F591" s="2">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="G591" s="2">
+        <f t="shared" si="472"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="H591" s="2">
+        <f t="shared" si="472"/>
+        <v>7.3900000000000006</v>
+      </c>
+      <c r="I591" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J591" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A592" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B592" s="2">
+        <v>10</v>
+      </c>
+      <c r="C592" s="2">
+        <v>29</v>
+      </c>
+      <c r="D592" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="E592" s="2">
+        <v>55.8</v>
+      </c>
+      <c r="F592" s="2">
+        <v>63.6</v>
+      </c>
+      <c r="G592" s="2">
+        <f t="shared" si="472"/>
+        <v>5.58</v>
+      </c>
+      <c r="H592" s="2">
+        <f t="shared" si="472"/>
+        <v>6.36</v>
+      </c>
+      <c r="I592" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J592" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A593" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B593" s="2">
+        <v>10</v>
+      </c>
+      <c r="C593" s="2">
+        <v>30</v>
+      </c>
+      <c r="D593" s="2">
+        <v>2.653</v>
+      </c>
+      <c r="E593" s="2">
+        <v>63.4</v>
+      </c>
+      <c r="F593" s="2">
+        <v>71.7</v>
+      </c>
+      <c r="G593" s="2">
+        <f t="shared" si="472"/>
+        <v>6.34</v>
+      </c>
+      <c r="H593" s="2">
+        <f t="shared" si="472"/>
+        <v>7.17</v>
+      </c>
+      <c r="I593" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J593" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A594" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B594" s="2">
+        <v>10</v>
+      </c>
+      <c r="C594" s="2">
+        <v>31</v>
+      </c>
+      <c r="D594" s="2">
+        <v>3.383</v>
+      </c>
+      <c r="E594" s="2">
+        <v>65.5</v>
+      </c>
+      <c r="F594" s="2">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="G594" s="2">
+        <f t="shared" si="472"/>
+        <v>6.55</v>
+      </c>
+      <c r="H594" s="2">
+        <f t="shared" si="472"/>
+        <v>7.3900000000000006</v>
+      </c>
+      <c r="I594" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J594" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A595" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B595" s="2">
+        <v>10</v>
+      </c>
+      <c r="C595" s="2">
+        <v>32</v>
+      </c>
+      <c r="D595" s="2">
+        <v>3.085</v>
+      </c>
+      <c r="E595" s="2">
+        <v>64.3</v>
+      </c>
+      <c r="F595" s="2">
+        <v>74.2</v>
+      </c>
+      <c r="G595" s="2">
+        <f t="shared" si="472"/>
+        <v>6.43</v>
+      </c>
+      <c r="H595" s="2">
+        <f t="shared" si="472"/>
+        <v>7.42</v>
+      </c>
+      <c r="I595" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J595" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A596" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B596" s="2">
+        <v>10</v>
+      </c>
+      <c r="C596" s="2">
+        <v>33</v>
+      </c>
+      <c r="D596" s="2">
+        <v>3.7290000000000001</v>
+      </c>
+      <c r="E596" s="2">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="F596" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="G596" s="2">
+        <f t="shared" si="472"/>
+        <v>6.7900000000000009</v>
+      </c>
+      <c r="H596" s="2">
+        <f t="shared" si="472"/>
+        <v>7.85</v>
+      </c>
+      <c r="I596" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J596" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A597" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B597" s="2">
+        <v>10</v>
+      </c>
+      <c r="C597" s="2">
+        <v>34</v>
+      </c>
+      <c r="D597" s="2">
+        <v>3.5569999999999999</v>
+      </c>
+      <c r="E597" s="2">
+        <v>67.8</v>
+      </c>
+      <c r="F597" s="2">
+        <v>80.3</v>
+      </c>
+      <c r="G597" s="2">
+        <f t="shared" si="472"/>
+        <v>6.7799999999999994</v>
+      </c>
+      <c r="H597" s="2">
+        <f t="shared" si="472"/>
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="I597" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J597" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A598" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B598" s="2">
+        <v>10</v>
+      </c>
+      <c r="C598" s="2">
+        <v>35</v>
+      </c>
+      <c r="D598" s="2">
+        <v>2.7480000000000002</v>
+      </c>
+      <c r="E598" s="2">
+        <v>63.5</v>
+      </c>
+      <c r="F598" s="2">
+        <v>73.8</v>
+      </c>
+      <c r="G598" s="2">
+        <f t="shared" si="472"/>
+        <v>6.35</v>
+      </c>
+      <c r="H598" s="2">
+        <f t="shared" si="472"/>
+        <v>7.38</v>
+      </c>
+      <c r="I598" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J598" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A599" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B599" s="2">
+        <v>10</v>
+      </c>
+      <c r="C599" s="2">
+        <v>36</v>
+      </c>
+      <c r="D599" s="2">
+        <v>7.1440000000000001</v>
+      </c>
+      <c r="E599" s="2">
+        <v>71</v>
+      </c>
+      <c r="F599" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="G599" s="2">
+        <f t="shared" si="472"/>
+        <v>7.1</v>
+      </c>
+      <c r="H599" s="2">
+        <f t="shared" si="472"/>
+        <v>7.9799999999999995</v>
+      </c>
+      <c r="I599" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J599" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A600" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B600" s="2">
+        <v>10</v>
+      </c>
+      <c r="C600" s="2">
+        <v>37</v>
+      </c>
+      <c r="D600" s="2">
+        <v>3.2789999999999999</v>
+      </c>
+      <c r="E600" s="2">
+        <v>66.7</v>
+      </c>
+      <c r="F600" s="2">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="G600" s="2">
+        <f t="shared" si="472"/>
+        <v>6.67</v>
+      </c>
+      <c r="H600" s="2">
+        <f t="shared" si="472"/>
+        <v>7.5400000000000009</v>
+      </c>
+      <c r="I600" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J600" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A601" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B601" s="2">
+        <v>10</v>
+      </c>
+      <c r="C601" s="2">
+        <v>38</v>
+      </c>
+      <c r="D601" s="2">
+        <v>3.7789999999999999</v>
+      </c>
+      <c r="E601" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="F601" s="2">
+        <v>72.2</v>
+      </c>
+      <c r="G601" s="2">
+        <f t="shared" si="472"/>
+        <v>6.25</v>
+      </c>
+      <c r="H601" s="2">
+        <f t="shared" si="472"/>
+        <v>7.2200000000000006</v>
+      </c>
+      <c r="I601" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J601" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A602" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B602" s="2">
+        <v>10</v>
+      </c>
+      <c r="C602" s="2">
+        <v>39</v>
+      </c>
+      <c r="D602" s="2">
+        <v>1.056</v>
+      </c>
+      <c r="E602" s="2">
+        <v>46.4</v>
+      </c>
+      <c r="F602" s="2">
+        <v>55.8</v>
+      </c>
+      <c r="G602" s="2">
+        <f t="shared" si="472"/>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="H602" s="2">
+        <f t="shared" si="472"/>
+        <v>5.58</v>
+      </c>
+      <c r="I602" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J602" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A603" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B603" s="2">
+        <v>10</v>
+      </c>
+      <c r="C603" s="2">
+        <v>40</v>
+      </c>
+      <c r="D603" s="2">
+        <v>1.246</v>
+      </c>
+      <c r="E603" s="2">
+        <v>49.2</v>
+      </c>
+      <c r="F603" s="2">
+        <v>56.3</v>
+      </c>
+      <c r="G603" s="2">
+        <f t="shared" si="472"/>
+        <v>4.92</v>
+      </c>
+      <c r="H603" s="2">
+        <f t="shared" si="472"/>
+        <v>5.63</v>
+      </c>
+      <c r="I603" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J603" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A604" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B604" s="2">
+        <v>10</v>
+      </c>
+      <c r="C604" s="2">
+        <v>41</v>
+      </c>
+      <c r="D604" s="2">
+        <v>2.2970000000000002</v>
+      </c>
+      <c r="E604" s="2">
+        <v>57.8</v>
+      </c>
+      <c r="F604" s="2">
+        <v>68.3</v>
+      </c>
+      <c r="G604" s="2">
+        <f t="shared" si="472"/>
+        <v>5.7799999999999994</v>
+      </c>
+      <c r="H604" s="2">
+        <f t="shared" si="472"/>
+        <v>6.83</v>
+      </c>
+      <c r="I604" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J604" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A605" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B605" s="2">
+        <v>10</v>
+      </c>
+      <c r="C605" s="2">
+        <v>42</v>
+      </c>
+      <c r="D605" s="2">
+        <v>2.9910000000000001</v>
+      </c>
+      <c r="E605" s="2">
+        <v>65.5</v>
+      </c>
+      <c r="F605" s="2">
+        <v>74.5</v>
+      </c>
+      <c r="G605" s="2">
+        <f t="shared" si="472"/>
+        <v>6.55</v>
+      </c>
+      <c r="H605" s="2">
+        <f t="shared" si="472"/>
+        <v>7.45</v>
+      </c>
+      <c r="I605" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J605" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A606" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B606" s="2">
+        <v>10</v>
+      </c>
+      <c r="C606" s="2">
+        <v>43</v>
+      </c>
+      <c r="D606" s="2">
+        <v>2.4780000000000002</v>
+      </c>
+      <c r="E606" s="2">
+        <v>60</v>
+      </c>
+      <c r="F606" s="2">
+        <v>69.2</v>
+      </c>
+      <c r="G606" s="2">
+        <f t="shared" si="472"/>
+        <v>6</v>
+      </c>
+      <c r="H606" s="2">
+        <f t="shared" si="472"/>
+        <v>6.92</v>
+      </c>
+      <c r="I606" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J606" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A607" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B607" s="2">
+        <v>10</v>
+      </c>
+      <c r="C607" s="2">
+        <v>44</v>
+      </c>
+      <c r="D607" s="2">
+        <v>1.871</v>
+      </c>
+      <c r="E607" s="2">
+        <v>55.1</v>
+      </c>
+      <c r="F607" s="2">
+        <v>62.9</v>
+      </c>
+      <c r="G607" s="2">
+        <f t="shared" si="472"/>
+        <v>5.51</v>
+      </c>
+      <c r="H607" s="2">
+        <f t="shared" si="472"/>
+        <v>6.29</v>
+      </c>
+      <c r="I607" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J607" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A608" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B608" s="2">
+        <v>10</v>
+      </c>
+      <c r="C608" s="2">
+        <v>45</v>
+      </c>
+      <c r="D608" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="E608" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="F608" s="2">
+        <v>41.2</v>
+      </c>
+      <c r="G608" s="2">
+        <f t="shared" si="472"/>
+        <v>3.65</v>
+      </c>
+      <c r="H608" s="2">
+        <f t="shared" si="472"/>
+        <v>4.12</v>
+      </c>
+      <c r="I608" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J608" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A609" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B609" s="2">
+        <v>10</v>
+      </c>
+      <c r="C609" s="2">
+        <v>46</v>
+      </c>
+      <c r="D609" s="2">
+        <v>0.442</v>
+      </c>
+      <c r="E609" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="F609" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="G609" s="2">
+        <f t="shared" si="472"/>
+        <v>3.5799999999999996</v>
+      </c>
+      <c r="H609" s="2">
+        <f t="shared" si="472"/>
+        <v>3.9899999999999998</v>
+      </c>
+      <c r="I609" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J609" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A610" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B610" s="2">
+        <v>10</v>
+      </c>
+      <c r="C610" s="2">
+        <v>47</v>
+      </c>
+      <c r="D610" s="2">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E610" s="2">
+        <v>44.2</v>
+      </c>
+      <c r="F610" s="2">
+        <v>51</v>
+      </c>
+      <c r="G610" s="2">
+        <f t="shared" si="472"/>
+        <v>4.42</v>
+      </c>
+      <c r="H610" s="2">
+        <f t="shared" si="472"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I610" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J610" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A611" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B611" s="2">
+        <v>10</v>
+      </c>
+      <c r="C611" s="2">
+        <v>48</v>
+      </c>
+      <c r="D611" s="2">
+        <v>1.127</v>
+      </c>
+      <c r="E611" s="2">
+        <v>47.8</v>
+      </c>
+      <c r="F611" s="2">
+        <v>53.8</v>
+      </c>
+      <c r="G611" s="2">
+        <f t="shared" si="472"/>
+        <v>4.7799999999999994</v>
+      </c>
+      <c r="H611" s="2">
+        <f t="shared" si="472"/>
+        <v>5.38</v>
+      </c>
+      <c r="I611" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J611" s="2">
+        <v>136726</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A612" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B612" s="2">
+        <v>11</v>
+      </c>
+      <c r="C612" s="2">
+        <v>1</v>
+      </c>
+      <c r="D612" s="2">
+        <v>2.548</v>
+      </c>
+      <c r="E612" s="2">
+        <v>50.2</v>
+      </c>
+      <c r="F612" s="2">
+        <v>62</v>
+      </c>
+      <c r="G612" s="2">
+        <f t="shared" si="472"/>
+        <v>5.0200000000000005</v>
+      </c>
+      <c r="H612" s="2">
+        <f t="shared" si="472"/>
+        <v>6.2</v>
+      </c>
+      <c r="I612" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J612" s="2">
+        <v>149423</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A613" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B613" s="2">
+        <v>11</v>
+      </c>
+      <c r="C613" s="2">
+        <v>2</v>
+      </c>
+      <c r="D613" s="2">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="E613" s="2">
+        <v>35</v>
+      </c>
+      <c r="F613" s="2">
+        <v>44.3</v>
+      </c>
+      <c r="G613" s="2">
+        <f t="shared" si="472"/>
+        <v>3.5</v>
+      </c>
+      <c r="H613" s="2">
+        <f t="shared" si="472"/>
+        <v>4.43</v>
+      </c>
+      <c r="I613" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J613" s="2">
+        <v>149427</v>
+      </c>
+    </row>
+    <row r="614" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A614" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B614" s="2">
+        <v>11</v>
+      </c>
+      <c r="C614" s="2">
+        <v>3</v>
+      </c>
+      <c r="D614" s="2">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="E614" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="F614" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="G614" s="2">
+        <f t="shared" si="472"/>
+        <v>3.09</v>
+      </c>
+      <c r="H614" s="2">
+        <f t="shared" si="472"/>
+        <v>3.95</v>
+      </c>
+      <c r="I614" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J614" s="2">
+        <v>149427</v>
+      </c>
+    </row>
+    <row r="615" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A615" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B615" s="2">
+        <v>11</v>
+      </c>
+      <c r="C615" s="2">
+        <v>4</v>
+      </c>
+      <c r="D615" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E615" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="F615" s="2">
+        <v>25</v>
+      </c>
+      <c r="G615" s="2">
+        <f t="shared" si="472"/>
+        <v>2.06</v>
+      </c>
+      <c r="H615" s="2">
+        <f t="shared" si="472"/>
+        <v>2.5</v>
+      </c>
+      <c r="I615" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J615" s="2">
+        <v>149429</v>
+      </c>
+    </row>
+    <row r="616" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A616" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B616" s="2">
+        <v>11</v>
+      </c>
+      <c r="C616" s="2">
+        <v>5</v>
+      </c>
+      <c r="D616" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E616" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="F616" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="G616" s="2">
+        <f t="shared" si="472"/>
+        <v>2.16</v>
+      </c>
+      <c r="H616" s="2">
+        <f t="shared" si="472"/>
+        <v>2.73</v>
+      </c>
+      <c r="I616" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J616" s="2">
+        <v>149429</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A617" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B617" s="2">
+        <v>11</v>
+      </c>
+      <c r="C617" s="2">
+        <v>6</v>
+      </c>
+      <c r="D617" s="2">
+        <v>0.224</v>
+      </c>
+      <c r="E617" s="2">
+        <v>23</v>
+      </c>
+      <c r="F617" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="G617" s="2">
+        <f t="shared" si="472"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H617" s="2">
+        <f t="shared" si="472"/>
+        <v>2.7800000000000002</v>
+      </c>
+      <c r="I617" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J617" s="2">
+        <v>149429</v>
+      </c>
+    </row>
+    <row r="618" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A618" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B618" s="2">
+        <v>11</v>
+      </c>
+      <c r="C618" s="2">
+        <v>7</v>
+      </c>
+      <c r="D618" s="2">
+        <v>0.152</v>
+      </c>
+      <c r="E618" s="2">
+        <v>21.2</v>
+      </c>
+      <c r="F618" s="2">
+        <v>26.1</v>
+      </c>
+      <c r="G618" s="2">
+        <f t="shared" si="472"/>
+        <v>2.12</v>
+      </c>
+      <c r="H618" s="2">
+        <f t="shared" si="472"/>
+        <v>2.6100000000000003</v>
+      </c>
+      <c r="I618" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J618" s="2">
+        <v>149429</v>
+      </c>
+    </row>
+    <row r="619" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A619" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B619" s="2">
+        <v>11</v>
+      </c>
+      <c r="C619" s="2">
+        <v>8</v>
+      </c>
+      <c r="D619" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E619" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="F619" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="G619" s="2">
+        <f t="shared" si="472"/>
+        <v>1.95</v>
+      </c>
+      <c r="H619" s="2">
+        <f t="shared" si="472"/>
+        <v>2.31</v>
+      </c>
+      <c r="I619" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J619" s="2">
+        <v>149429</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A620" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B620" s="2">
+        <v>11</v>
+      </c>
+      <c r="C620" s="2">
+        <v>9</v>
+      </c>
+      <c r="D620" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="E620" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F620" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="G620" s="2">
+        <f t="shared" si="472"/>
+        <v>1.9100000000000001</v>
+      </c>
+      <c r="H620" s="2">
+        <f t="shared" si="472"/>
+        <v>2.25</v>
+      </c>
+      <c r="I620" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J620" s="2">
+        <v>149429</v>
+      </c>
+    </row>
+    <row r="621" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A621" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B621" s="2">
+        <v>11</v>
+      </c>
+      <c r="C621" s="2">
+        <v>10</v>
+      </c>
+      <c r="D621" s="2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E621" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="F621" s="2">
+        <v>26.2</v>
+      </c>
+      <c r="G621" s="2">
+        <f t="shared" si="472"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H621" s="2">
+        <f t="shared" si="472"/>
+        <v>2.62</v>
+      </c>
+      <c r="I621" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J621" s="2">
+        <v>149429</v>
+      </c>
+    </row>
+    <row r="622" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A622" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B622" s="2">
+        <v>11</v>
+      </c>
+      <c r="C622" s="2">
+        <v>11</v>
+      </c>
+      <c r="D622" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E622" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="F622" s="2">
+        <v>21.7</v>
+      </c>
+      <c r="G622" s="2">
+        <f t="shared" si="472"/>
+        <v>1.95</v>
+      </c>
+      <c r="H622" s="2">
+        <f t="shared" si="472"/>
+        <v>2.17</v>
+      </c>
+      <c r="I622" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J622" s="2">
+        <v>149429</v>
+      </c>
+    </row>
+    <row r="623" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A623" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B623" s="2">
+        <v>12</v>
+      </c>
+      <c r="C623" s="2">
+        <v>1</v>
+      </c>
+      <c r="D623" s="2">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="E623" s="2">
+        <v>42.1</v>
+      </c>
+      <c r="F623" s="2">
+        <v>47.8</v>
+      </c>
+      <c r="G623" s="2">
+        <f t="shared" si="472"/>
+        <v>4.21</v>
+      </c>
+      <c r="H623" s="2">
+        <f t="shared" si="472"/>
+        <v>4.7799999999999994</v>
+      </c>
+      <c r="I623" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J623" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A624" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B624" s="2">
+        <v>12</v>
+      </c>
+      <c r="C624" s="2">
+        <v>2</v>
+      </c>
+      <c r="D624" s="2">
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="E624" s="2">
+        <v>54.4</v>
+      </c>
+      <c r="F624" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="G624" s="2">
+        <f t="shared" si="472"/>
+        <v>5.4399999999999995</v>
+      </c>
+      <c r="H624" s="2">
+        <f t="shared" si="472"/>
+        <v>6.45</v>
+      </c>
+      <c r="I624" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J624" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="625" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A625" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B625" s="2">
+        <v>12</v>
+      </c>
+      <c r="C625" s="2">
+        <v>3</v>
+      </c>
+      <c r="D625" s="2">
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="E625" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="F625" s="2">
+        <v>53.5</v>
+      </c>
+      <c r="G625" s="2">
+        <f t="shared" si="472"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H625" s="2">
+        <f t="shared" si="472"/>
+        <v>5.35</v>
+      </c>
+      <c r="I625" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J625" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="626" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A626" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B626" s="2">
+        <v>12</v>
+      </c>
+      <c r="C626" s="2">
+        <v>4</v>
+      </c>
+      <c r="D626" s="2">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E626" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="F626" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="G626" s="2">
+        <f t="shared" si="472"/>
+        <v>2.75</v>
+      </c>
+      <c r="H626" s="2">
+        <f t="shared" si="472"/>
+        <v>3.19</v>
+      </c>
+      <c r="I626" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J626" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="627" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A627" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B627" s="2">
+        <v>12</v>
+      </c>
+      <c r="C627" s="2">
+        <v>5</v>
+      </c>
+      <c r="D627" s="2">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="E627" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="F627" s="2">
+        <v>46.7</v>
+      </c>
+      <c r="G627" s="2">
+        <f t="shared" si="472"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H627" s="2">
+        <f t="shared" si="472"/>
+        <v>4.67</v>
+      </c>
+      <c r="I627" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J627" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A628" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B628" s="2">
+        <v>12</v>
+      </c>
+      <c r="C628" s="2">
+        <v>6</v>
+      </c>
+      <c r="D628" s="2">
+        <v>1.4890000000000001</v>
+      </c>
+      <c r="E628" s="2">
+        <v>46.8</v>
+      </c>
+      <c r="F628" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="G628" s="2">
+        <f t="shared" si="472"/>
+        <v>4.68</v>
+      </c>
+      <c r="H628" s="2">
+        <f t="shared" si="472"/>
+        <v>5.25</v>
+      </c>
+      <c r="I628" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J628" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A629" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B629" s="2">
+        <v>12</v>
+      </c>
+      <c r="C629" s="2">
+        <v>7</v>
+      </c>
+      <c r="D629" s="2">
+        <v>1.512</v>
+      </c>
+      <c r="E629" s="2">
+        <v>48</v>
+      </c>
+      <c r="F629" s="2">
+        <v>53.6</v>
+      </c>
+      <c r="G629" s="2">
+        <f t="shared" si="472"/>
+        <v>4.8</v>
+      </c>
+      <c r="H629" s="2">
+        <f t="shared" si="472"/>
+        <v>5.36</v>
+      </c>
+      <c r="I629" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J629" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="630" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A630" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B630" s="2">
+        <v>12</v>
+      </c>
+      <c r="C630" s="2">
+        <v>8</v>
+      </c>
+      <c r="D630" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="E630" s="2">
+        <v>31</v>
+      </c>
+      <c r="F630" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G630" s="2">
+        <f t="shared" si="472"/>
+        <v>3.1</v>
+      </c>
+      <c r="H630" s="2">
+        <f t="shared" si="472"/>
+        <v>3.4799999999999995</v>
+      </c>
+      <c r="I630" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J630" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="631" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A631" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B631" s="2">
+        <v>12</v>
+      </c>
+      <c r="C631" s="2">
+        <v>9</v>
+      </c>
+      <c r="D631" s="2">
+        <v>1.022</v>
+      </c>
+      <c r="E631" s="2">
+        <v>44.8</v>
+      </c>
+      <c r="F631" s="2">
+        <v>50.7</v>
+      </c>
+      <c r="G631" s="2">
+        <f t="shared" si="472"/>
+        <v>4.4799999999999995</v>
+      </c>
+      <c r="H631" s="2">
+        <f t="shared" si="472"/>
+        <v>5.07</v>
+      </c>
+      <c r="I631" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J631" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="632" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A632" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B632" s="2">
+        <v>12</v>
+      </c>
+      <c r="C632" s="2">
+        <v>10</v>
+      </c>
+      <c r="D632" s="2">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E632" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="F632" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G632" s="2">
+        <f t="shared" si="472"/>
+        <v>2.96</v>
+      </c>
+      <c r="H632" s="2">
+        <f t="shared" si="472"/>
+        <v>3.2299999999999995</v>
+      </c>
+      <c r="I632" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J632" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="633" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A633" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B633" s="2">
+        <v>12</v>
+      </c>
+      <c r="C633" s="2">
+        <v>11</v>
+      </c>
+      <c r="D633" s="2">
+        <v>1.161</v>
+      </c>
+      <c r="E633" s="2">
+        <v>46.4</v>
+      </c>
+      <c r="F633" s="2">
+        <v>59.6</v>
+      </c>
+      <c r="G633" s="2">
+        <f t="shared" si="472"/>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="H633" s="2">
+        <f t="shared" si="472"/>
+        <v>5.96</v>
+      </c>
+      <c r="I633" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J633" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="634" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A634" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B634" s="2">
+        <v>12</v>
+      </c>
+      <c r="C634" s="2">
+        <v>12</v>
+      </c>
+      <c r="D634" s="2">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="E634" s="2">
+        <v>41.2</v>
+      </c>
+      <c r="F634" s="2">
+        <v>48.1</v>
+      </c>
+      <c r="G634" s="2">
+        <f t="shared" si="472"/>
+        <v>4.12</v>
+      </c>
+      <c r="H634" s="2">
+        <f t="shared" si="472"/>
+        <v>4.8100000000000005</v>
+      </c>
+      <c r="I634" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J634" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="635" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A635" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B635" s="2">
+        <v>12</v>
+      </c>
+      <c r="C635" s="2">
+        <v>13</v>
+      </c>
+      <c r="D635" s="2">
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="E635" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="F635" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="G635" s="2">
+        <f t="shared" si="472"/>
+        <v>4.55</v>
+      </c>
+      <c r="H635" s="2">
+        <f t="shared" si="472"/>
+        <v>5.25</v>
+      </c>
+      <c r="I635" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J635" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="636" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A636" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B636" s="2">
+        <v>12</v>
+      </c>
+      <c r="C636" s="2">
+        <v>14</v>
+      </c>
+      <c r="D636" s="2">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="E636" s="2">
+        <v>42.7</v>
+      </c>
+      <c r="F636" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="G636" s="2">
+        <f t="shared" si="472"/>
+        <v>4.2700000000000005</v>
+      </c>
+      <c r="H636" s="2">
+        <f t="shared" si="472"/>
+        <v>5.05</v>
+      </c>
+      <c r="I636" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J636" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="637" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A637" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B637" s="2">
+        <v>12</v>
+      </c>
+      <c r="C637" s="2">
+        <v>15</v>
+      </c>
+      <c r="D637" s="2">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="E637" s="2">
+        <v>41.1</v>
+      </c>
+      <c r="F637" s="2">
+        <v>58.1</v>
+      </c>
+      <c r="G637" s="2">
+        <f t="shared" si="472"/>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="H637" s="2">
+        <f t="shared" si="472"/>
+        <v>5.8100000000000005</v>
+      </c>
+      <c r="I637" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J637" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="638" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A638" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B638" s="2">
+        <v>12</v>
+      </c>
+      <c r="C638" s="2">
+        <v>16</v>
+      </c>
+      <c r="D638" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="E638" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="F638" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G638" s="2">
+        <f t="shared" si="472"/>
+        <v>3.1100000000000003</v>
+      </c>
+      <c r="H638" s="2">
+        <f t="shared" si="472"/>
+        <v>3.47</v>
+      </c>
+      <c r="I638" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J638" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="639" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A639" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B639" s="2">
+        <v>12</v>
+      </c>
+      <c r="C639" s="2">
+        <v>17</v>
+      </c>
+      <c r="D639" s="2">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="E639" s="2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F639" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="G639" s="2">
+        <f t="shared" si="472"/>
+        <v>4.07</v>
+      </c>
+      <c r="H639" s="2">
+        <f t="shared" si="472"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="I639" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J639" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="640" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A640" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B640" s="2">
+        <v>12</v>
+      </c>
+      <c r="C640" s="2">
+        <v>18</v>
+      </c>
+      <c r="D640" s="2">
+        <v>1.204</v>
+      </c>
+      <c r="E640" s="2">
+        <v>44.1</v>
+      </c>
+      <c r="F640" s="2">
+        <v>50</v>
+      </c>
+      <c r="G640" s="2">
+        <f t="shared" si="472"/>
+        <v>4.41</v>
+      </c>
+      <c r="H640" s="2">
+        <f t="shared" si="472"/>
+        <v>5</v>
+      </c>
+      <c r="I640" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J640" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="641" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A641" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B641" s="2">
+        <v>12</v>
+      </c>
+      <c r="C641" s="2">
+        <v>19</v>
+      </c>
+      <c r="D641" s="2">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="E641" s="2">
+        <v>29</v>
+      </c>
+      <c r="F641" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="G641" s="2">
+        <f t="shared" si="472"/>
+        <v>2.9</v>
+      </c>
+      <c r="H641" s="2">
+        <f t="shared" si="472"/>
+        <v>3.19</v>
+      </c>
+      <c r="I641" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J641" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="642" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A642" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B642" s="2">
+        <v>12</v>
+      </c>
+      <c r="C642" s="2">
+        <v>20</v>
+      </c>
+      <c r="D642" s="2">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="E642" s="2">
+        <v>46.4</v>
+      </c>
+      <c r="F642" s="2">
+        <v>51.9</v>
+      </c>
+      <c r="G642" s="2">
+        <f t="shared" si="472"/>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="H642" s="2">
+        <f t="shared" si="472"/>
+        <v>5.1899999999999995</v>
+      </c>
+      <c r="I642" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J642" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="643" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A643" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B643" s="2">
+        <v>12</v>
+      </c>
+      <c r="C643" s="2">
+        <v>21</v>
+      </c>
+      <c r="D643" s="2">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="E643" s="2">
+        <v>42.4</v>
+      </c>
+      <c r="F643" s="2">
+        <v>49.2</v>
+      </c>
+      <c r="G643" s="2">
+        <f t="shared" si="472"/>
+        <v>4.24</v>
+      </c>
+      <c r="H643" s="2">
+        <f t="shared" si="472"/>
+        <v>4.92</v>
+      </c>
+      <c r="I643" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J643" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="644" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A644" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B644" s="2">
+        <v>12</v>
+      </c>
+      <c r="C644" s="2">
+        <v>22</v>
+      </c>
+      <c r="D644" s="2">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E644" s="2">
+        <v>36</v>
+      </c>
+      <c r="F644" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="G644" s="2">
+        <f t="shared" si="472"/>
+        <v>3.6</v>
+      </c>
+      <c r="H644" s="2">
+        <f t="shared" si="472"/>
+        <v>4.05</v>
+      </c>
+      <c r="I644" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J644" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="645" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A645" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B645" s="2">
+        <v>12</v>
+      </c>
+      <c r="C645" s="2">
+        <v>23</v>
+      </c>
+      <c r="D645" s="2">
+        <v>1.137</v>
+      </c>
+      <c r="E645" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="F645" s="2">
+        <v>49.2</v>
+      </c>
+      <c r="G645" s="2">
+        <f t="shared" si="472"/>
+        <v>4.29</v>
+      </c>
+      <c r="H645" s="2">
+        <f t="shared" si="472"/>
+        <v>4.92</v>
+      </c>
+      <c r="I645" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J645" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="646" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A646" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B646" s="2">
+        <v>12</v>
+      </c>
+      <c r="C646" s="2">
+        <v>24</v>
+      </c>
+      <c r="D646" s="2">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="E646" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F646" s="2">
+        <v>37</v>
+      </c>
+      <c r="G646" s="2">
+        <f t="shared" si="472"/>
+        <v>3.22</v>
+      </c>
+      <c r="H646" s="2">
+        <f t="shared" si="472"/>
+        <v>3.7</v>
+      </c>
+      <c r="I646" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J646" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="647" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A647" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B647" s="2">
+        <v>12</v>
+      </c>
+      <c r="C647" s="2">
+        <v>25</v>
+      </c>
+      <c r="D647" s="2">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="E647" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F647" s="2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="G647" s="2">
+        <f t="shared" si="472"/>
+        <v>3.4799999999999995</v>
+      </c>
+      <c r="H647" s="2">
+        <f t="shared" si="472"/>
+        <v>3.9299999999999997</v>
+      </c>
+      <c r="I647" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J647" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="648" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A648" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B648" s="2">
+        <v>12</v>
+      </c>
+      <c r="C648" s="2">
+        <v>26</v>
+      </c>
+      <c r="D648" s="2">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E648" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="F648" s="2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G648" s="2">
+        <f t="shared" si="472"/>
+        <v>3.1100000000000003</v>
+      </c>
+      <c r="H648" s="2">
+        <f t="shared" si="472"/>
+        <v>3.6700000000000004</v>
+      </c>
+      <c r="I648" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J648" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="649" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A649" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B649" s="2">
+        <v>12</v>
+      </c>
+      <c r="C649" s="2">
+        <v>27</v>
+      </c>
+      <c r="D649" s="2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E649" s="2">
+        <v>23</v>
+      </c>
+      <c r="F649" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="G649" s="2">
+        <f t="shared" si="472"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H649" s="2">
+        <f t="shared" si="472"/>
+        <v>2.59</v>
+      </c>
+      <c r="I649" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J649" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="650" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A650" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B650" s="2">
+        <v>12</v>
+      </c>
+      <c r="C650" s="2">
+        <v>28</v>
+      </c>
+      <c r="D650" s="2">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="E650" s="2">
+        <v>30</v>
+      </c>
+      <c r="F650" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G650" s="2">
+        <f t="shared" si="472"/>
+        <v>3</v>
+      </c>
+      <c r="H650" s="2">
+        <f t="shared" si="472"/>
+        <v>3.47</v>
+      </c>
+      <c r="I650" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J650" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="651" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A651" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B651" s="2">
+        <v>12</v>
+      </c>
+      <c r="C651" s="2">
+        <v>29</v>
+      </c>
+      <c r="D651" s="2">
+        <v>0.217</v>
+      </c>
+      <c r="E651" s="2">
+        <v>26.9</v>
+      </c>
+      <c r="F651" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="G651" s="2">
+        <f t="shared" si="472"/>
+        <v>2.69</v>
+      </c>
+      <c r="H651" s="2">
+        <f t="shared" si="472"/>
+        <v>3.08</v>
+      </c>
+      <c r="I651" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J651" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="652" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A652" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B652" s="2">
+        <v>12</v>
+      </c>
+      <c r="C652" s="2">
+        <v>30</v>
+      </c>
+      <c r="D652" s="2">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="E652" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="F652" s="2">
+        <v>33</v>
+      </c>
+      <c r="G652" s="2">
+        <f t="shared" si="472"/>
+        <v>2.96</v>
+      </c>
+      <c r="H652" s="2">
+        <f t="shared" si="472"/>
+        <v>3.3</v>
+      </c>
+      <c r="I652" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J652" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="653" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A653" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B653" s="2">
+        <v>12</v>
+      </c>
+      <c r="C653" s="2">
+        <v>31</v>
+      </c>
+      <c r="D653" s="2">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E653" s="2">
+        <v>33.1</v>
+      </c>
+      <c r="F653" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="G653" s="2">
+        <f t="shared" si="472"/>
+        <v>3.31</v>
+      </c>
+      <c r="H653" s="2">
+        <f t="shared" si="472"/>
+        <v>3.65</v>
+      </c>
+      <c r="I653" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J653" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="654" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A654" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B654" s="2">
+        <v>12</v>
+      </c>
+      <c r="C654" s="2">
+        <v>32</v>
+      </c>
+      <c r="D654" s="2">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="E654" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="F654" s="2">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="G654" s="2">
+        <f t="shared" si="472"/>
+        <v>3.12</v>
+      </c>
+      <c r="H654" s="2">
+        <f t="shared" si="472"/>
+        <v>3.53</v>
+      </c>
+      <c r="I654" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J654" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="655" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A655" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B655" s="2">
+        <v>12</v>
+      </c>
+      <c r="C655" s="2">
+        <v>33</v>
+      </c>
+      <c r="D655" s="2">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="E655" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="F655" s="2">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G655" s="2">
+        <f t="shared" si="472"/>
+        <v>3.0100000000000002</v>
+      </c>
+      <c r="H655" s="2">
+        <f t="shared" si="472"/>
+        <v>3.38</v>
+      </c>
+      <c r="I655" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J655" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="656" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A656" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B656" s="2">
+        <v>12</v>
+      </c>
+      <c r="C656" s="2">
+        <v>34</v>
+      </c>
+      <c r="D656" s="2">
+        <v>0.127</v>
+      </c>
+      <c r="E656" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="F656" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="G656" s="2">
+        <f t="shared" si="472"/>
+        <v>2.5300000000000002</v>
+      </c>
+      <c r="H656" s="2">
+        <f t="shared" si="472"/>
+        <v>2.88</v>
+      </c>
+      <c r="I656" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J656" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A657" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B657" s="2">
+        <v>12</v>
+      </c>
+      <c r="C657" s="2">
+        <v>35</v>
+      </c>
+      <c r="D657" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E657" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="F657" s="2">
+        <v>31.3</v>
+      </c>
+      <c r="G657" s="2">
+        <f t="shared" si="472"/>
+        <v>2.84</v>
+      </c>
+      <c r="H657" s="2">
+        <f t="shared" si="472"/>
+        <v>3.13</v>
+      </c>
+      <c r="I657" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J657" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="658" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A658" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B658" s="2">
+        <v>12</v>
+      </c>
+      <c r="C658" s="2">
+        <v>36</v>
+      </c>
+      <c r="D658" s="2">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E658" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="F658" s="2">
+        <v>26.7</v>
+      </c>
+      <c r="G658" s="2">
+        <f t="shared" si="472"/>
+        <v>2.41</v>
+      </c>
+      <c r="H658" s="2">
+        <f t="shared" si="472"/>
+        <v>2.67</v>
+      </c>
+      <c r="I658" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J658" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="659" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A659" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B659" s="2">
+        <v>12</v>
+      </c>
+      <c r="C659" s="2">
+        <v>37</v>
+      </c>
+      <c r="D659" s="2">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="E659" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="F659" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G659" s="2">
+        <f t="shared" si="472"/>
+        <v>2.95</v>
+      </c>
+      <c r="H659" s="2">
+        <f t="shared" si="472"/>
+        <v>3.4299999999999997</v>
+      </c>
+      <c r="I659" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J659" s="2">
+        <v>136831</v>
+      </c>
+    </row>
+    <row r="660" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A660" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B660" s="2">
+        <v>12</v>
+      </c>
+      <c r="C660" s="2">
+        <v>38</v>
+      </c>
+      <c r="D660" s="2">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="E660" s="2">
+        <v>48.9</v>
+      </c>
+      <c r="F660" s="2">
+        <v>55.5</v>
+      </c>
+      <c r="G660" s="2">
+        <f t="shared" si="472"/>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="H660" s="2">
+        <f t="shared" si="472"/>
+        <v>5.55</v>
+      </c>
+      <c r="I660" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J660" s="2">
+        <v>136846</v>
+      </c>
+    </row>
+    <row r="661" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A661" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B661" s="2">
+        <v>12</v>
+      </c>
+      <c r="C661" s="2">
+        <v>39</v>
+      </c>
+      <c r="D661" s="2">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E661" s="2">
+        <v>43.8</v>
+      </c>
+      <c r="F661" s="2">
+        <v>51</v>
+      </c>
+      <c r="G661" s="2">
+        <f t="shared" si="472"/>
+        <v>4.38</v>
+      </c>
+      <c r="H661" s="2">
+        <f t="shared" si="472"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I661" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J661" s="2">
+        <v>136846</v>
+      </c>
+    </row>
+    <row r="662" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A662" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B662" s="2">
+        <v>12</v>
+      </c>
+      <c r="C662" s="2">
+        <v>40</v>
+      </c>
+      <c r="D662" s="2">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="E662" s="2">
+        <v>49.1</v>
+      </c>
+      <c r="F662" s="2">
+        <v>58.3</v>
+      </c>
+      <c r="G662" s="2">
+        <f t="shared" si="472"/>
+        <v>4.91</v>
+      </c>
+      <c r="H662" s="2">
+        <f t="shared" si="472"/>
+        <v>5.83</v>
+      </c>
+      <c r="I662" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J662" s="2">
+        <v>136846</v>
+      </c>
+    </row>
+    <row r="663" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A663" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B663" s="2">
+        <v>12</v>
+      </c>
+      <c r="C663" s="2">
+        <v>41</v>
+      </c>
+      <c r="D663" s="2">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="E663" s="2">
+        <v>45.1</v>
+      </c>
+      <c r="F663" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="G663" s="2">
+        <f t="shared" si="472"/>
+        <v>4.51</v>
+      </c>
+      <c r="H663" s="2">
+        <f t="shared" si="472"/>
+        <v>5.25</v>
+      </c>
+      <c r="I663" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J663" s="2">
+        <v>136846</v>
+      </c>
+    </row>
+    <row r="664" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A664" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B664" s="2">
+        <v>12</v>
+      </c>
+      <c r="C664" s="2">
+        <v>42</v>
+      </c>
+      <c r="D664" s="2">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="E664" s="2">
+        <v>45</v>
+      </c>
+      <c r="F664" s="2">
+        <v>52.2</v>
+      </c>
+      <c r="G664" s="2">
+        <f t="shared" si="472"/>
+        <v>4.5</v>
+      </c>
+      <c r="H664" s="2">
+        <f t="shared" ref="H664:H747" si="473">F664/10</f>
+        <v>5.2200000000000006</v>
+      </c>
+      <c r="I664" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J664" s="2">
+        <v>136827</v>
+      </c>
+    </row>
+    <row r="665" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A665" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B665" s="2">
+        <v>12</v>
+      </c>
+      <c r="C665" s="2">
+        <v>43</v>
+      </c>
+      <c r="D665" s="2">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="E665" s="2">
+        <v>43.9</v>
+      </c>
+      <c r="F665" s="2">
+        <v>46.7</v>
+      </c>
+      <c r="G665" s="2">
+        <f t="shared" ref="G665:G747" si="474">E665/10</f>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H665" s="2">
+        <f t="shared" si="473"/>
+        <v>4.67</v>
+      </c>
+      <c r="I665" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J665" s="2">
+        <v>136827</v>
+      </c>
+    </row>
+    <row r="666" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A666" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B666" s="2">
+        <v>12</v>
+      </c>
+      <c r="C666" s="2">
+        <v>44</v>
+      </c>
+      <c r="D666" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="E666" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F666" s="2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="G666" s="2">
+        <f t="shared" si="474"/>
+        <v>3.2299999999999995</v>
+      </c>
+      <c r="H666" s="2">
+        <f t="shared" si="473"/>
+        <v>3.62</v>
+      </c>
+      <c r="I666" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J666" s="2">
+        <v>136827</v>
+      </c>
+    </row>
+    <row r="667" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A667" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B667" s="2">
+        <v>12</v>
+      </c>
+      <c r="C667" s="2">
+        <v>45</v>
+      </c>
+      <c r="D667" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E667" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="F667" s="2">
+        <v>24.9</v>
+      </c>
+      <c r="G667" s="2">
+        <f t="shared" si="474"/>
+        <v>2.29</v>
+      </c>
+      <c r="H667" s="2">
+        <f t="shared" si="473"/>
+        <v>2.4899999999999998</v>
+      </c>
+      <c r="I667" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J667" s="2">
+        <v>136827</v>
+      </c>
+    </row>
+    <row r="668" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A668" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B668" s="2">
+        <v>12</v>
+      </c>
+      <c r="C668" s="2">
+        <v>46</v>
+      </c>
+      <c r="D668" s="2">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="E668" s="2">
+        <v>31.6</v>
+      </c>
+      <c r="F668" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="G668" s="2">
+        <f t="shared" si="474"/>
+        <v>3.16</v>
+      </c>
+      <c r="H668" s="2">
+        <f t="shared" si="473"/>
+        <v>3.7600000000000002</v>
+      </c>
+      <c r="I668" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J668" s="2">
+        <v>136827</v>
+      </c>
+    </row>
+    <row r="669" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A669" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B669" s="2">
+        <v>12</v>
+      </c>
+      <c r="C669" s="2">
+        <v>47</v>
+      </c>
+      <c r="D669" s="2">
+        <v>0.186</v>
+      </c>
+      <c r="E669" s="2">
+        <v>25.5</v>
+      </c>
+      <c r="F669" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="G669" s="2">
+        <f t="shared" si="474"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H669" s="2">
+        <f t="shared" si="473"/>
+        <v>2.7800000000000002</v>
+      </c>
+      <c r="I669" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J669" s="2">
+        <v>136827</v>
+      </c>
+    </row>
+    <row r="670" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A670" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B670" s="2">
+        <v>12</v>
+      </c>
+      <c r="C670" s="2">
+        <v>48</v>
+      </c>
+      <c r="D670" s="2">
+        <v>1.663</v>
+      </c>
+      <c r="E670" s="2">
+        <v>48.7</v>
+      </c>
+      <c r="F670" s="2">
+        <v>57.7</v>
+      </c>
+      <c r="G670" s="2">
+        <f t="shared" si="474"/>
+        <v>4.87</v>
+      </c>
+      <c r="H670" s="2">
+        <f t="shared" si="473"/>
+        <v>5.7700000000000005</v>
+      </c>
+      <c r="I670" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J670" s="2">
+        <v>136851</v>
+      </c>
+    </row>
+    <row r="671" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A671" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B671" s="2">
+        <v>12</v>
+      </c>
+      <c r="C671" s="2">
+        <v>49</v>
+      </c>
+      <c r="D671" s="2">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="E671" s="2">
+        <v>46.1</v>
+      </c>
+      <c r="F671" s="2">
+        <v>52.3</v>
+      </c>
+      <c r="G671" s="2">
+        <f t="shared" si="474"/>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="H671" s="2">
+        <f t="shared" si="473"/>
+        <v>5.2299999999999995</v>
+      </c>
+      <c r="I671" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J671" s="2">
+        <v>136851</v>
+      </c>
+    </row>
+    <row r="672" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A672" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B672" s="2">
+        <v>12</v>
+      </c>
+      <c r="C672" s="2">
+        <v>50</v>
+      </c>
+      <c r="D672" s="2">
+        <v>1.804</v>
+      </c>
+      <c r="E672" s="2">
+        <v>51</v>
+      </c>
+      <c r="F672" s="2">
+        <v>60.1</v>
+      </c>
+      <c r="G672" s="2">
+        <f t="shared" si="474"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H672" s="2">
+        <f t="shared" si="473"/>
+        <v>6.01</v>
+      </c>
+      <c r="I672" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J672" s="2">
+        <v>136851</v>
+      </c>
+    </row>
+    <row r="673" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A673" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B673" s="2">
+        <v>12</v>
+      </c>
+      <c r="C673" s="2">
+        <v>51</v>
+      </c>
+      <c r="D673" s="2">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="E673" s="2">
+        <v>46.2</v>
+      </c>
+      <c r="F673" s="2">
+        <v>53.9</v>
+      </c>
+      <c r="G673" s="2">
+        <f t="shared" si="474"/>
+        <v>4.62</v>
+      </c>
+      <c r="H673" s="2">
+        <f t="shared" si="473"/>
+        <v>5.39</v>
+      </c>
+      <c r="I673" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J673" s="2">
+        <v>136851</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A674" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B674" s="2">
+        <v>12</v>
+      </c>
+      <c r="C674" s="2">
+        <v>52</v>
+      </c>
+      <c r="D674" s="2">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="E674" s="2">
+        <v>33.6</v>
+      </c>
+      <c r="F674" s="2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="G674" s="2">
+        <f t="shared" si="474"/>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="H674" s="2">
+        <f t="shared" si="473"/>
+        <v>4.07</v>
+      </c>
+      <c r="I674" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J674" s="2">
+        <v>136851</v>
+      </c>
+    </row>
+    <row r="675" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A675" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B675" s="2">
+        <v>12</v>
+      </c>
+      <c r="C675" s="2">
+        <v>53</v>
+      </c>
+      <c r="D675" s="2">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="E675" s="2">
+        <v>44.1</v>
+      </c>
+      <c r="F675" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="G675" s="2">
+        <f t="shared" si="474"/>
+        <v>4.41</v>
+      </c>
+      <c r="H675" s="2">
+        <f t="shared" si="473"/>
+        <v>5.08</v>
+      </c>
+      <c r="I675" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J675" s="2">
+        <v>136851</v>
+      </c>
+    </row>
+    <row r="676" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A676" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B676" s="2">
+        <v>12</v>
+      </c>
+      <c r="C676" s="2">
+        <v>54</v>
+      </c>
+      <c r="D676" s="2">
+        <v>1.488</v>
+      </c>
+      <c r="E676" s="2">
+        <v>45.6</v>
+      </c>
+      <c r="F676" s="2">
+        <v>53.5</v>
+      </c>
+      <c r="G676" s="2">
+        <f t="shared" si="474"/>
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="H676" s="2">
+        <f t="shared" si="473"/>
+        <v>5.35</v>
+      </c>
+      <c r="I676" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J676" s="2">
+        <v>136851</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A677" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B677" s="2">
+        <v>12</v>
+      </c>
+      <c r="C677" s="2">
+        <v>55</v>
+      </c>
+      <c r="D677" s="2">
+        <v>1.224</v>
+      </c>
+      <c r="E677" s="2">
+        <v>44</v>
+      </c>
+      <c r="F677" s="2">
+        <v>52.2</v>
+      </c>
+      <c r="G677" s="2">
+        <f t="shared" si="474"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H677" s="2">
+        <f t="shared" si="473"/>
+        <v>5.2200000000000006</v>
+      </c>
+      <c r="I677" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J677" s="2">
+        <v>136851</v>
+      </c>
+    </row>
+    <row r="678" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A678" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B678" s="2">
+        <v>12</v>
+      </c>
+      <c r="C678" s="2">
+        <v>56</v>
+      </c>
+      <c r="D678">
+        <v>1.9319999999999999</v>
+      </c>
+      <c r="E678" s="2">
+        <v>49.7</v>
+      </c>
+      <c r="F678" s="2">
+        <v>58.7</v>
+      </c>
+      <c r="G678" s="2">
+        <f t="shared" si="474"/>
+        <v>4.9700000000000006</v>
+      </c>
+      <c r="H678" s="2">
+        <f t="shared" si="473"/>
+        <v>5.87</v>
+      </c>
+      <c r="I678" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J678" s="2">
+        <v>136851</v>
+      </c>
+    </row>
+    <row r="679" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A679" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B679" s="2">
+        <v>12</v>
+      </c>
+      <c r="C679" s="2">
+        <v>57</v>
+      </c>
+      <c r="D679" s="2">
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="E679" s="2">
+        <v>43.7</v>
+      </c>
+      <c r="F679" s="2">
+        <v>50.9</v>
+      </c>
+      <c r="G679" s="2">
+        <f t="shared" si="474"/>
+        <v>4.37</v>
+      </c>
+      <c r="H679" s="2">
+        <f t="shared" si="473"/>
+        <v>5.09</v>
+      </c>
+      <c r="I679" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J679" s="2">
+        <v>136851</v>
+      </c>
+    </row>
+    <row r="680" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A680" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B680" s="2">
+        <v>12</v>
+      </c>
+      <c r="C680" s="2">
+        <v>58</v>
+      </c>
+      <c r="D680" s="2">
+        <v>1.792</v>
+      </c>
+      <c r="E680" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="F680" s="2">
+        <v>56.9</v>
+      </c>
+      <c r="G680" s="2">
+        <f t="shared" si="474"/>
+        <v>4.99</v>
+      </c>
+      <c r="H680" s="2">
+        <f t="shared" si="473"/>
+        <v>5.6899999999999995</v>
+      </c>
+      <c r="I680" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J680" s="2">
+        <v>136851</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A681" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B681" s="2">
+        <v>12</v>
+      </c>
+      <c r="C681" s="2">
+        <v>59</v>
+      </c>
+      <c r="D681" s="2">
+        <v>1.173</v>
+      </c>
+      <c r="E681" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="F681" s="2">
+        <v>51.1</v>
+      </c>
+      <c r="G681" s="2">
+        <f t="shared" si="474"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="H681" s="2">
+        <f t="shared" si="473"/>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I681" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J681" s="2">
+        <v>136851</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A682" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B682" s="2">
+        <v>12</v>
+      </c>
+      <c r="C682" s="2">
+        <v>60</v>
+      </c>
+      <c r="D682" s="2">
+        <v>1.341</v>
+      </c>
+      <c r="E682" s="2">
+        <v>45</v>
+      </c>
+      <c r="F682" s="2">
+        <v>52</v>
+      </c>
+      <c r="G682" s="2">
+        <f t="shared" si="474"/>
+        <v>4.5</v>
+      </c>
+      <c r="H682" s="2">
+        <f t="shared" si="473"/>
+        <v>5.2</v>
+      </c>
+      <c r="I682" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J682" s="2">
+        <v>136851</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A683" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B683" s="2">
+        <v>12</v>
+      </c>
+      <c r="C683" s="2">
+        <v>61</v>
+      </c>
+      <c r="D683" s="2">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E683" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="F683" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="G683" s="2">
+        <f t="shared" si="474"/>
+        <v>3.54</v>
+      </c>
+      <c r="H683" s="2">
+        <f t="shared" si="473"/>
+        <v>4.17</v>
+      </c>
+      <c r="I683" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J683" s="2">
+        <v>136851</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A684" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B684" s="2">
+        <v>12</v>
+      </c>
+      <c r="C684" s="2">
+        <v>62</v>
+      </c>
+      <c r="D684" s="2">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="E684" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="F684" s="2">
+        <v>42.1</v>
+      </c>
+      <c r="G684" s="2">
+        <f t="shared" si="474"/>
+        <v>3.4899999999999998</v>
+      </c>
+      <c r="H684" s="2">
+        <f t="shared" si="473"/>
+        <v>4.21</v>
+      </c>
+      <c r="I684" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J684" s="2">
+        <v>136851</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A685" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B685" s="2">
+        <v>12</v>
+      </c>
+      <c r="C685" s="2">
+        <v>63</v>
+      </c>
+      <c r="D685" s="2">
+        <v>0.376</v>
+      </c>
+      <c r="E685" s="2">
+        <v>30.4</v>
+      </c>
+      <c r="F685" s="2">
+        <v>37.1</v>
+      </c>
+      <c r="G685" s="2">
+        <f t="shared" si="474"/>
+        <v>3.04</v>
+      </c>
+      <c r="H685" s="2">
+        <f t="shared" si="473"/>
+        <v>3.71</v>
+      </c>
+      <c r="I685" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J685" s="2">
+        <v>136851</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A686" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B686" s="2">
+        <v>12</v>
+      </c>
+      <c r="C686" s="2">
+        <v>64</v>
+      </c>
+      <c r="D686" s="2">
+        <v>0.624</v>
+      </c>
+      <c r="E686" s="2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="F686" s="2">
+        <v>41.3</v>
+      </c>
+      <c r="G686" s="2">
+        <f t="shared" si="474"/>
+        <v>3.62</v>
+      </c>
+      <c r="H686" s="2">
+        <f t="shared" si="473"/>
+        <v>4.13</v>
+      </c>
+      <c r="I686" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J686" s="2">
+        <v>136851</v>
+      </c>
+    </row>
+    <row r="687" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A687" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B687" s="2">
+        <v>12</v>
+      </c>
+      <c r="C687" s="2">
+        <v>65</v>
+      </c>
+      <c r="D687" s="2">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="E687" s="2">
+        <v>53.9</v>
+      </c>
+      <c r="F687" s="2">
+        <v>65</v>
+      </c>
+      <c r="G687" s="2">
+        <f t="shared" si="474"/>
+        <v>5.39</v>
+      </c>
+      <c r="H687" s="2">
+        <f t="shared" si="473"/>
+        <v>6.5</v>
+      </c>
+      <c r="I687" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J687" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A688" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B688" s="2">
+        <v>12</v>
+      </c>
+      <c r="C688" s="2">
+        <v>66</v>
+      </c>
+      <c r="D688" s="2">
+        <v>1.9590000000000001</v>
+      </c>
+      <c r="E688" s="2">
+        <v>52.7</v>
+      </c>
+      <c r="F688" s="2">
+        <v>61.9</v>
+      </c>
+      <c r="G688" s="2">
+        <f t="shared" si="474"/>
+        <v>5.2700000000000005</v>
+      </c>
+      <c r="H688" s="2">
+        <f t="shared" si="473"/>
+        <v>6.1899999999999995</v>
+      </c>
+      <c r="I688" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J688" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="689" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A689" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B689" s="2">
+        <v>12</v>
+      </c>
+      <c r="C689" s="2">
+        <v>67</v>
+      </c>
+      <c r="D689" s="2">
+        <v>3.1680000000000001</v>
+      </c>
+      <c r="E689" s="2">
+        <v>59.3</v>
+      </c>
+      <c r="F689" s="2">
+        <v>74.7</v>
+      </c>
+      <c r="G689" s="2">
+        <f t="shared" si="474"/>
+        <v>5.93</v>
+      </c>
+      <c r="H689" s="2">
+        <f t="shared" si="473"/>
+        <v>7.4700000000000006</v>
+      </c>
+      <c r="I689" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J689" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="690" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A690" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B690" s="2">
+        <v>12</v>
+      </c>
+      <c r="C690" s="2">
+        <v>68</v>
+      </c>
+      <c r="D690" s="2">
+        <v>4.6710000000000003</v>
+      </c>
+      <c r="E690" s="2">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="F690" s="2">
+        <v>83.6</v>
+      </c>
+      <c r="G690" s="2">
+        <f t="shared" si="474"/>
+        <v>7.06</v>
+      </c>
+      <c r="H690" s="2">
+        <f t="shared" si="473"/>
+        <v>8.36</v>
+      </c>
+      <c r="I690" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J690" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A691" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B691" s="2">
+        <v>12</v>
+      </c>
+      <c r="C691" s="2">
+        <v>69</v>
+      </c>
+      <c r="D691" s="2">
+        <v>3.62</v>
+      </c>
+      <c r="E691" s="2">
+        <v>62.4</v>
+      </c>
+      <c r="F691" s="2">
+        <v>75.2</v>
+      </c>
+      <c r="G691" s="2">
+        <f t="shared" si="474"/>
+        <v>6.24</v>
+      </c>
+      <c r="H691" s="2">
+        <f t="shared" si="473"/>
+        <v>7.5200000000000005</v>
+      </c>
+      <c r="I691" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J691" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="692" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A692" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B692" s="2">
+        <v>12</v>
+      </c>
+      <c r="C692" s="2">
+        <v>70</v>
+      </c>
+      <c r="D692" s="2">
+        <v>2.665</v>
+      </c>
+      <c r="E692" s="2">
+        <v>57.5</v>
+      </c>
+      <c r="F692" s="2">
+        <v>68</v>
+      </c>
+      <c r="G692" s="2">
+        <f t="shared" si="474"/>
+        <v>5.75</v>
+      </c>
+      <c r="H692" s="2">
+        <f t="shared" si="473"/>
+        <v>6.8</v>
+      </c>
+      <c r="I692" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J692" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A693" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B693" s="2">
+        <v>12</v>
+      </c>
+      <c r="C693" s="2">
+        <v>71</v>
+      </c>
+      <c r="D693" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E693" s="2">
+        <v>57.2</v>
+      </c>
+      <c r="F693" s="2">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="G693" s="2">
+        <f t="shared" si="474"/>
+        <v>5.7200000000000006</v>
+      </c>
+      <c r="H693" s="2">
+        <f t="shared" si="473"/>
+        <v>7.9099999999999993</v>
+      </c>
+      <c r="I693" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J693" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A694" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B694" s="2">
+        <v>12</v>
+      </c>
+      <c r="C694" s="2">
+        <v>72</v>
+      </c>
+      <c r="D694" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="E694" s="2">
+        <v>61.8</v>
+      </c>
+      <c r="F694" s="2">
+        <v>74</v>
+      </c>
+      <c r="G694" s="2">
+        <f t="shared" si="474"/>
+        <v>6.18</v>
+      </c>
+      <c r="H694" s="2">
+        <f t="shared" si="473"/>
+        <v>7.4</v>
+      </c>
+      <c r="I694" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J694" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="695" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A695" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B695" s="2">
+        <v>12</v>
+      </c>
+      <c r="C695" s="2">
+        <v>73</v>
+      </c>
+      <c r="D695" s="2">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="E695" s="2">
+        <v>45.2</v>
+      </c>
+      <c r="F695" s="2">
+        <v>53.8</v>
+      </c>
+      <c r="G695" s="2">
+        <f t="shared" si="474"/>
+        <v>4.5200000000000005</v>
+      </c>
+      <c r="H695" s="2">
+        <f t="shared" si="473"/>
+        <v>5.38</v>
+      </c>
+      <c r="I695" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J695" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="696" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A696" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B696" s="2">
+        <v>12</v>
+      </c>
+      <c r="C696" s="2">
+        <v>74</v>
+      </c>
+      <c r="D696" s="2">
+        <v>2.9910000000000001</v>
+      </c>
+      <c r="E696" s="2">
+        <v>59.8</v>
+      </c>
+      <c r="F696" s="2">
+        <v>71.3</v>
+      </c>
+      <c r="G696" s="2">
+        <f t="shared" si="474"/>
+        <v>5.9799999999999995</v>
+      </c>
+      <c r="H696" s="2">
+        <f t="shared" si="473"/>
+        <v>7.13</v>
+      </c>
+      <c r="I696" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J696" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="697" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A697" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B697" s="2">
+        <v>12</v>
+      </c>
+      <c r="C697" s="2">
+        <v>75</v>
+      </c>
+      <c r="D697" s="2">
+        <v>3.1280000000000001</v>
+      </c>
+      <c r="E697" s="2">
+        <v>60.6</v>
+      </c>
+      <c r="F697" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="G697" s="2">
+        <f t="shared" si="474"/>
+        <v>6.0600000000000005</v>
+      </c>
+      <c r="H697" s="2">
+        <f t="shared" si="473"/>
+        <v>7.25</v>
+      </c>
+      <c r="I697" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J697" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="698" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A698" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B698" s="2">
+        <v>12</v>
+      </c>
+      <c r="C698" s="2">
+        <v>76</v>
+      </c>
+      <c r="D698" s="2">
+        <v>3.5030000000000001</v>
+      </c>
+      <c r="E698" s="2">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="F698" s="2">
+        <v>78.3</v>
+      </c>
+      <c r="G698" s="2">
+        <f t="shared" si="474"/>
+        <v>6.51</v>
+      </c>
+      <c r="H698" s="2">
+        <f t="shared" si="473"/>
+        <v>7.83</v>
+      </c>
+      <c r="I698" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J698" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="699" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A699" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B699" s="2">
+        <v>12</v>
+      </c>
+      <c r="C699" s="2">
+        <v>77</v>
+      </c>
+      <c r="D699" s="2">
+        <v>2.4849999999999999</v>
+      </c>
+      <c r="E699" s="2">
+        <v>57.1</v>
+      </c>
+      <c r="F699" s="2">
+        <v>66.8</v>
+      </c>
+      <c r="G699" s="2">
+        <f t="shared" si="474"/>
+        <v>5.71</v>
+      </c>
+      <c r="H699" s="2">
+        <f t="shared" si="473"/>
+        <v>6.68</v>
+      </c>
+      <c r="I699" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J699" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="700" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A700" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B700" s="2">
+        <v>12</v>
+      </c>
+      <c r="C700" s="2">
+        <v>78</v>
+      </c>
+      <c r="D700" s="2">
+        <v>3.758</v>
+      </c>
+      <c r="E700" s="2">
+        <v>65.3</v>
+      </c>
+      <c r="F700" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="G700" s="2">
+        <f t="shared" si="474"/>
+        <v>6.5299999999999994</v>
+      </c>
+      <c r="H700" s="2">
+        <f t="shared" si="473"/>
+        <v>7.75</v>
+      </c>
+      <c r="I700" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J700" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="701" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A701" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B701" s="2">
+        <v>12</v>
+      </c>
+      <c r="C701" s="2">
+        <v>79</v>
+      </c>
+      <c r="D701" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="E701" s="2">
+        <v>53</v>
+      </c>
+      <c r="F701" s="2">
+        <v>63.4</v>
+      </c>
+      <c r="G701" s="2">
+        <f t="shared" si="474"/>
+        <v>5.3</v>
+      </c>
+      <c r="H701" s="2">
+        <f t="shared" si="473"/>
+        <v>6.34</v>
+      </c>
+      <c r="I701" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J701" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="702" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A702" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B702" s="2">
+        <v>12</v>
+      </c>
+      <c r="C702" s="2">
+        <v>80</v>
+      </c>
+      <c r="D702" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="E702" s="2">
+        <v>52.9</v>
+      </c>
+      <c r="F702" s="2">
+        <v>62.9</v>
+      </c>
+      <c r="G702" s="2">
+        <f t="shared" si="474"/>
+        <v>5.29</v>
+      </c>
+      <c r="H702" s="2">
+        <f t="shared" si="473"/>
+        <v>6.29</v>
+      </c>
+      <c r="I702" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J702" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="703" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A703" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B703" s="2">
+        <v>12</v>
+      </c>
+      <c r="C703" s="2">
+        <v>81</v>
+      </c>
+      <c r="D703" s="2">
+        <v>3.4529999999999998</v>
+      </c>
+      <c r="E703" s="2">
+        <v>64</v>
+      </c>
+      <c r="F703" s="2">
+        <v>75</v>
+      </c>
+      <c r="G703" s="2">
+        <f t="shared" si="474"/>
+        <v>6.4</v>
+      </c>
+      <c r="H703" s="2">
+        <f t="shared" si="473"/>
+        <v>7.5</v>
+      </c>
+      <c r="I703" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J703" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="704" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A704" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B704" s="2">
+        <v>12</v>
+      </c>
+      <c r="C704" s="2">
+        <v>82</v>
+      </c>
+      <c r="D704" s="2">
+        <v>1.734</v>
+      </c>
+      <c r="E704" s="2">
+        <v>51.3</v>
+      </c>
+      <c r="F704" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="G704" s="2">
+        <f t="shared" si="474"/>
+        <v>5.13</v>
+      </c>
+      <c r="H704" s="2">
+        <f t="shared" si="473"/>
+        <v>6.25</v>
+      </c>
+      <c r="I704" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J704" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="705" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A705" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B705" s="2">
+        <v>12</v>
+      </c>
+      <c r="C705" s="2">
+        <v>83</v>
+      </c>
+      <c r="D705" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E705" s="2">
+        <v>52.7</v>
+      </c>
+      <c r="F705" s="2">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="G705" s="2">
+        <f t="shared" si="474"/>
+        <v>5.2700000000000005</v>
+      </c>
+      <c r="H705" s="2">
+        <f t="shared" si="473"/>
+        <v>6.44</v>
+      </c>
+      <c r="I705" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J705" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="706" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A706" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B706" s="2">
+        <v>12</v>
+      </c>
+      <c r="C706" s="2">
+        <v>84</v>
+      </c>
+      <c r="D706" s="2">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="E706" s="2">
+        <v>57.8</v>
+      </c>
+      <c r="F706" s="2">
+        <v>68.8</v>
+      </c>
+      <c r="G706" s="2">
+        <f t="shared" si="474"/>
+        <v>5.7799999999999994</v>
+      </c>
+      <c r="H706" s="2">
+        <f t="shared" si="473"/>
+        <v>6.88</v>
+      </c>
+      <c r="I706" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J706" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="707" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A707" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B707" s="2">
+        <v>12</v>
+      </c>
+      <c r="C707" s="2">
+        <v>85</v>
+      </c>
+      <c r="D707" s="2">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="E707" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="F707" s="2">
+        <v>59.1</v>
+      </c>
+      <c r="G707" s="2">
+        <f t="shared" si="474"/>
+        <v>5.08</v>
+      </c>
+      <c r="H707" s="2">
+        <f t="shared" si="473"/>
+        <v>5.91</v>
+      </c>
+      <c r="I707" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J707" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="708" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A708" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B708" s="2">
+        <v>12</v>
+      </c>
+      <c r="C708" s="2">
+        <v>86</v>
+      </c>
+      <c r="D708" s="2">
+        <v>2.6789999999999998</v>
+      </c>
+      <c r="E708" s="2">
+        <v>58.9</v>
+      </c>
+      <c r="F708" s="2">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="G708" s="2">
+        <f t="shared" si="474"/>
+        <v>5.89</v>
+      </c>
+      <c r="H708" s="2">
+        <f t="shared" si="473"/>
+        <v>6.9599999999999991</v>
+      </c>
+      <c r="I708" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J708" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="709" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A709" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B709" s="2">
+        <v>12</v>
+      </c>
+      <c r="C709" s="2">
+        <v>87</v>
+      </c>
+      <c r="D709" s="2">
+        <v>2.371</v>
+      </c>
+      <c r="E709" s="2">
+        <v>56.2</v>
+      </c>
+      <c r="F709" s="2">
+        <v>64.8</v>
+      </c>
+      <c r="G709" s="2">
+        <f t="shared" si="474"/>
+        <v>5.62</v>
+      </c>
+      <c r="H709" s="2">
+        <f t="shared" si="473"/>
+        <v>6.4799999999999995</v>
+      </c>
+      <c r="I709" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J709" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="710" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A710" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B710" s="2">
+        <v>12</v>
+      </c>
+      <c r="C710" s="2">
+        <v>88</v>
+      </c>
+      <c r="D710" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="E710" s="2">
+        <v>50.2</v>
+      </c>
+      <c r="F710" s="2">
+        <v>60.4</v>
+      </c>
+      <c r="G710" s="2">
+        <f t="shared" si="474"/>
+        <v>5.0200000000000005</v>
+      </c>
+      <c r="H710" s="2">
+        <f t="shared" si="473"/>
+        <v>6.04</v>
+      </c>
+      <c r="I710" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J710" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="711" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A711" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B711" s="2">
+        <v>12</v>
+      </c>
+      <c r="C711" s="2">
+        <v>89</v>
+      </c>
+      <c r="D711" s="2">
+        <v>2.589</v>
+      </c>
+      <c r="E711" s="2">
+        <v>57.1</v>
+      </c>
+      <c r="F711" s="2">
+        <v>68.5</v>
+      </c>
+      <c r="G711" s="2">
+        <f t="shared" si="474"/>
+        <v>5.71</v>
+      </c>
+      <c r="H711" s="2">
+        <f t="shared" si="473"/>
+        <v>6.85</v>
+      </c>
+      <c r="I711" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J711" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="712" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A712" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B712" s="2">
+        <v>12</v>
+      </c>
+      <c r="C712" s="2">
+        <v>90</v>
+      </c>
+      <c r="D712" s="2">
+        <v>2.62</v>
+      </c>
+      <c r="E712" s="2">
+        <v>58.4</v>
+      </c>
+      <c r="F712" s="2">
+        <v>68.3</v>
+      </c>
+      <c r="G712" s="2">
+        <f t="shared" si="474"/>
+        <v>5.84</v>
+      </c>
+      <c r="H712" s="2">
+        <f t="shared" si="473"/>
+        <v>6.83</v>
+      </c>
+      <c r="I712" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J712" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="713" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A713" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B713" s="2">
+        <v>12</v>
+      </c>
+      <c r="C713" s="2">
+        <v>91</v>
+      </c>
+      <c r="D713" s="2">
+        <v>2.63</v>
+      </c>
+      <c r="E713" s="2">
+        <v>58</v>
+      </c>
+      <c r="F713" s="2">
+        <v>79.5</v>
+      </c>
+      <c r="G713" s="2">
+        <f t="shared" si="474"/>
+        <v>5.8</v>
+      </c>
+      <c r="H713" s="2">
+        <f t="shared" si="473"/>
+        <v>7.95</v>
+      </c>
+      <c r="I713" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J713" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="714" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A714" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B714" s="2">
+        <v>12</v>
+      </c>
+      <c r="C714" s="2">
+        <v>92</v>
+      </c>
+      <c r="D714" s="2">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="E714" s="2">
+        <v>52.7</v>
+      </c>
+      <c r="F714" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="G714" s="2">
+        <f t="shared" si="474"/>
+        <v>5.2700000000000005</v>
+      </c>
+      <c r="H714" s="2">
+        <f t="shared" si="473"/>
+        <v>6.25</v>
+      </c>
+      <c r="I714" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J714" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="715" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A715" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B715" s="2">
+        <v>12</v>
+      </c>
+      <c r="C715" s="2">
+        <v>93</v>
+      </c>
+      <c r="D715" s="2">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="E715" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="F715" s="2">
+        <v>44.7</v>
+      </c>
+      <c r="G715" s="2">
+        <f t="shared" si="474"/>
+        <v>3.94</v>
+      </c>
+      <c r="H715" s="2">
+        <f t="shared" si="473"/>
+        <v>4.4700000000000006</v>
+      </c>
+      <c r="I715" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J715" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="716" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A716" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B716" s="2">
+        <v>12</v>
+      </c>
+      <c r="C716" s="2">
+        <v>94</v>
+      </c>
+      <c r="D716" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="E716" s="2">
+        <v>62.1</v>
+      </c>
+      <c r="F716" s="2">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="G716" s="2">
+        <f t="shared" si="474"/>
+        <v>6.21</v>
+      </c>
+      <c r="H716" s="2">
+        <f t="shared" si="473"/>
+        <v>7.3900000000000006</v>
+      </c>
+      <c r="I716" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J716" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="717" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A717" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B717" s="2">
+        <v>12</v>
+      </c>
+      <c r="C717" s="2">
+        <v>95</v>
+      </c>
+      <c r="D717" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="E717" s="2">
+        <v>58.3</v>
+      </c>
+      <c r="F717" s="2">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="G717" s="2">
+        <f t="shared" si="474"/>
+        <v>5.83</v>
+      </c>
+      <c r="H717" s="2">
+        <f t="shared" si="473"/>
+        <v>6.8599999999999994</v>
+      </c>
+      <c r="I717" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J717" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="718" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A718" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B718" s="2">
+        <v>12</v>
+      </c>
+      <c r="C718" s="2">
+        <v>96</v>
+      </c>
+      <c r="D718" s="2">
+        <v>2.9790000000000001</v>
+      </c>
+      <c r="E718" s="2">
+        <v>60.2</v>
+      </c>
+      <c r="F718" s="2">
+        <v>71.3</v>
+      </c>
+      <c r="G718" s="2">
+        <f t="shared" si="474"/>
+        <v>6.0200000000000005</v>
+      </c>
+      <c r="H718" s="2">
+        <f t="shared" si="473"/>
+        <v>7.13</v>
+      </c>
+      <c r="I718" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J718" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="719" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A719" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B719" s="2">
+        <v>12</v>
+      </c>
+      <c r="C719" s="2">
+        <v>97</v>
+      </c>
+      <c r="D719" s="2">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="E719" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="F719" s="2">
+        <v>60.1</v>
+      </c>
+      <c r="G719" s="2">
+        <f t="shared" si="474"/>
+        <v>5.08</v>
+      </c>
+      <c r="H719" s="2">
+        <f t="shared" si="473"/>
+        <v>6.01</v>
+      </c>
+      <c r="I719" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J719" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="720" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A720" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B720" s="2">
+        <v>12</v>
+      </c>
+      <c r="C720" s="2">
+        <v>98</v>
+      </c>
+      <c r="D720" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="E720" s="2">
+        <v>56.9</v>
+      </c>
+      <c r="F720" s="2">
+        <v>69</v>
+      </c>
+      <c r="G720" s="2">
+        <f t="shared" si="474"/>
+        <v>5.6899999999999995</v>
+      </c>
+      <c r="H720" s="2">
+        <f t="shared" si="473"/>
+        <v>6.9</v>
+      </c>
+      <c r="I720" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J720" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="721" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A721" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B721" s="2">
+        <v>12</v>
+      </c>
+      <c r="C721" s="2">
+        <v>99</v>
+      </c>
+      <c r="D721" s="2">
+        <v>2.2930000000000001</v>
+      </c>
+      <c r="E721" s="2">
+        <v>55.4</v>
+      </c>
+      <c r="F721" s="2">
+        <v>65.7</v>
+      </c>
+      <c r="G721" s="2">
+        <f t="shared" si="474"/>
+        <v>5.54</v>
+      </c>
+      <c r="H721" s="2">
+        <f t="shared" si="473"/>
+        <v>6.57</v>
+      </c>
+      <c r="I721" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J721" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="722" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A722" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B722" s="2">
+        <v>12</v>
+      </c>
+      <c r="C722" s="2">
+        <v>100</v>
+      </c>
+      <c r="D722" s="2">
+        <v>2.722</v>
+      </c>
+      <c r="E722" s="2">
+        <v>58.3</v>
+      </c>
+      <c r="F722" s="2">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="G722" s="2">
+        <f t="shared" si="474"/>
+        <v>5.83</v>
+      </c>
+      <c r="H722" s="2">
+        <f t="shared" si="473"/>
+        <v>6.7900000000000009</v>
+      </c>
+      <c r="I722" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J722" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="723" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A723" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B723" s="2">
+        <v>12</v>
+      </c>
+      <c r="C723" s="2">
+        <v>101</v>
+      </c>
+      <c r="D723" s="2">
+        <v>2.2730000000000001</v>
+      </c>
+      <c r="E723" s="2">
+        <v>57.8</v>
+      </c>
+      <c r="F723" s="2">
+        <v>66</v>
+      </c>
+      <c r="G723" s="2">
+        <f t="shared" si="474"/>
+        <v>5.7799999999999994</v>
+      </c>
+      <c r="H723" s="2">
+        <f t="shared" si="473"/>
+        <v>6.6</v>
+      </c>
+      <c r="I723" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J723" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="724" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A724" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B724" s="2">
+        <v>12</v>
+      </c>
+      <c r="C724" s="2">
+        <v>102</v>
+      </c>
+      <c r="D724" s="2">
+        <v>2.3730000000000002</v>
+      </c>
+      <c r="E724" s="2">
+        <v>55.9</v>
+      </c>
+      <c r="F724" s="2">
+        <v>67.3</v>
+      </c>
+      <c r="G724" s="2">
+        <f t="shared" si="474"/>
+        <v>5.59</v>
+      </c>
+      <c r="H724" s="2">
+        <f t="shared" si="473"/>
+        <v>6.7299999999999995</v>
+      </c>
+      <c r="I724" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J724" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="725" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A725" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B725" s="2">
+        <v>12</v>
+      </c>
+      <c r="C725" s="2">
+        <v>103</v>
+      </c>
+      <c r="D725" s="2">
+        <v>3.1619999999999999</v>
+      </c>
+      <c r="E725" s="2">
+        <v>61</v>
+      </c>
+      <c r="F725" s="2">
+        <v>70.8</v>
+      </c>
+      <c r="G725" s="2">
+        <f t="shared" si="474"/>
+        <v>6.1</v>
+      </c>
+      <c r="H725" s="2">
+        <f t="shared" si="473"/>
+        <v>7.08</v>
+      </c>
+      <c r="I725" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J725" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="726" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A726" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B726" s="2">
+        <v>12</v>
+      </c>
+      <c r="C726" s="2">
+        <v>104</v>
+      </c>
+      <c r="D726" s="2">
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="E726" s="2">
+        <v>50.6</v>
+      </c>
+      <c r="F726" s="2">
+        <v>60</v>
+      </c>
+      <c r="G726" s="2">
+        <f t="shared" si="474"/>
+        <v>5.0600000000000005</v>
+      </c>
+      <c r="H726" s="2">
+        <f t="shared" si="473"/>
+        <v>6</v>
+      </c>
+      <c r="I726" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J726" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="727" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A727" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B727" s="2">
+        <v>12</v>
+      </c>
+      <c r="C727" s="2">
+        <v>105</v>
+      </c>
+      <c r="D727" s="2">
+        <v>2.4319999999999999</v>
+      </c>
+      <c r="E727" s="2">
+        <v>56.9</v>
+      </c>
+      <c r="F727" s="2">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="G727" s="2">
+        <f t="shared" si="474"/>
+        <v>5.6899999999999995</v>
+      </c>
+      <c r="H727" s="2">
+        <f t="shared" si="473"/>
+        <v>6.76</v>
+      </c>
+      <c r="I727" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J727" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="728" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A728" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B728" s="2">
+        <v>12</v>
+      </c>
+      <c r="C728" s="2">
+        <v>106</v>
+      </c>
+      <c r="D728" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E728" s="2">
+        <v>56</v>
+      </c>
+      <c r="F728" s="2">
+        <v>66.3</v>
+      </c>
+      <c r="G728" s="2">
+        <f t="shared" si="474"/>
+        <v>5.6</v>
+      </c>
+      <c r="H728" s="2">
+        <f t="shared" si="473"/>
+        <v>6.63</v>
+      </c>
+      <c r="I728" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J728" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="729" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A729" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B729" s="2">
+        <v>12</v>
+      </c>
+      <c r="C729" s="2">
+        <v>107</v>
+      </c>
+      <c r="D729" s="2">
+        <v>3.1219999999999999</v>
+      </c>
+      <c r="E729" s="2">
+        <v>60.6</v>
+      </c>
+      <c r="F729" s="2">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="G729" s="2">
+        <f t="shared" si="474"/>
+        <v>6.0600000000000005</v>
+      </c>
+      <c r="H729" s="2">
+        <f t="shared" si="473"/>
+        <v>7.44</v>
+      </c>
+      <c r="I729" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J729" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="730" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A730" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B730" s="2">
+        <v>12</v>
+      </c>
+      <c r="C730" s="2">
+        <v>108</v>
+      </c>
+      <c r="D730" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="E730" s="2">
+        <v>51.8</v>
+      </c>
+      <c r="F730" s="2">
+        <v>59.6</v>
+      </c>
+      <c r="G730" s="2">
+        <f t="shared" si="474"/>
+        <v>5.18</v>
+      </c>
+      <c r="H730" s="2">
+        <f t="shared" si="473"/>
+        <v>5.96</v>
+      </c>
+      <c r="I730" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J730" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="731" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A731" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B731" s="2">
+        <v>12</v>
+      </c>
+      <c r="C731" s="2">
+        <v>109</v>
+      </c>
+      <c r="D731" s="2">
+        <v>2.4460000000000002</v>
+      </c>
+      <c r="E731" s="2">
+        <v>55.7</v>
+      </c>
+      <c r="F731" s="2">
+        <v>67</v>
+      </c>
+      <c r="G731" s="2">
+        <f t="shared" si="474"/>
+        <v>5.57</v>
+      </c>
+      <c r="H731" s="2">
+        <f t="shared" si="473"/>
+        <v>6.7</v>
+      </c>
+      <c r="I731" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J731" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="732" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A732" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B732" s="2">
+        <v>12</v>
+      </c>
+      <c r="C732" s="2">
+        <v>110</v>
+      </c>
+      <c r="D732" s="2">
+        <v>1.89</v>
+      </c>
+      <c r="E732" s="2">
+        <v>53.5</v>
+      </c>
+      <c r="F732" s="2">
+        <v>62.9</v>
+      </c>
+      <c r="G732" s="2">
+        <f t="shared" si="474"/>
+        <v>5.35</v>
+      </c>
+      <c r="H732" s="2">
+        <f t="shared" si="473"/>
+        <v>6.29</v>
+      </c>
+      <c r="I732" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J732" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="733" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A733" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B733" s="2">
+        <v>12</v>
+      </c>
+      <c r="C733" s="2">
+        <v>111</v>
+      </c>
+      <c r="D733" s="2">
+        <v>3.6890000000000001</v>
+      </c>
+      <c r="E733" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="F733" s="2">
+        <v>74.5</v>
+      </c>
+      <c r="G733" s="2">
+        <f t="shared" si="474"/>
+        <v>6.25</v>
+      </c>
+      <c r="H733" s="2">
+        <f t="shared" si="473"/>
+        <v>7.45</v>
+      </c>
+      <c r="I733" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J733" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="734" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A734" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B734" s="2">
+        <v>12</v>
+      </c>
+      <c r="C734" s="2">
+        <v>112</v>
+      </c>
+      <c r="D734" s="2">
+        <v>3.2040000000000002</v>
+      </c>
+      <c r="E734" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="F734" s="2">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="G734" s="2">
+        <f t="shared" si="474"/>
+        <v>6.15</v>
+      </c>
+      <c r="H734" s="2">
+        <f t="shared" si="473"/>
+        <v>7.1599999999999993</v>
+      </c>
+      <c r="I734" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J734" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="735" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A735" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B735" s="2">
+        <v>12</v>
+      </c>
+      <c r="C735" s="2">
+        <v>113</v>
+      </c>
+      <c r="D735" s="2">
+        <v>4.0259999999999998</v>
+      </c>
+      <c r="E735" s="2">
+        <v>65.7</v>
+      </c>
+      <c r="F735" s="2">
+        <v>77.8</v>
+      </c>
+      <c r="G735" s="2">
+        <f t="shared" si="474"/>
+        <v>6.57</v>
+      </c>
+      <c r="H735" s="2">
+        <f t="shared" si="473"/>
+        <v>7.7799999999999994</v>
+      </c>
+      <c r="I735" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J735" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="736" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A736" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B736" s="2">
+        <v>12</v>
+      </c>
+      <c r="C736" s="2">
+        <v>114</v>
+      </c>
+      <c r="D736" s="2">
+        <v>4.6529999999999996</v>
+      </c>
+      <c r="E736" s="2">
+        <v>67.7</v>
+      </c>
+      <c r="F736" s="2">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="G736" s="2">
+        <f t="shared" si="474"/>
+        <v>6.7700000000000005</v>
+      </c>
+      <c r="H736" s="2">
+        <f t="shared" si="473"/>
+        <v>7.94</v>
+      </c>
+      <c r="I736" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J736" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="737" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A737" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B737" s="2">
+        <v>12</v>
+      </c>
+      <c r="C737" s="2">
+        <v>115</v>
+      </c>
+      <c r="D737" s="2">
+        <v>3.34</v>
+      </c>
+      <c r="E737" s="2">
+        <v>60.2</v>
+      </c>
+      <c r="F737" s="2">
+        <v>72.8</v>
+      </c>
+      <c r="G737" s="2">
+        <f t="shared" si="474"/>
+        <v>6.0200000000000005</v>
+      </c>
+      <c r="H737" s="2">
+        <f t="shared" si="473"/>
+        <v>7.2799999999999994</v>
+      </c>
+      <c r="I737" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J737" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="738" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A738" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B738" s="2">
+        <v>12</v>
+      </c>
+      <c r="C738" s="2">
+        <v>116</v>
+      </c>
+      <c r="D738" s="2">
+        <v>2.71</v>
+      </c>
+      <c r="E738" s="2">
+        <v>58.3</v>
+      </c>
+      <c r="F738" s="2">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="G738" s="2">
+        <f t="shared" si="474"/>
+        <v>5.83</v>
+      </c>
+      <c r="H738" s="2">
+        <f t="shared" si="473"/>
+        <v>6.8900000000000006</v>
+      </c>
+      <c r="I738" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J738" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="739" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A739" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B739" s="2">
+        <v>12</v>
+      </c>
+      <c r="C739" s="2">
+        <v>117</v>
+      </c>
+      <c r="D739" s="2">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="E739" s="2">
+        <v>44.8</v>
+      </c>
+      <c r="F739" s="2">
+        <v>54.1</v>
+      </c>
+      <c r="G739" s="2">
+        <f t="shared" si="474"/>
+        <v>4.4799999999999995</v>
+      </c>
+      <c r="H739" s="2">
+        <f t="shared" si="473"/>
+        <v>5.41</v>
+      </c>
+      <c r="I739" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J739" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="740" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A740" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B740" s="2">
+        <v>12</v>
+      </c>
+      <c r="C740" s="2">
+        <v>118</v>
+      </c>
+      <c r="D740" s="2">
+        <v>2.8769999999999998</v>
+      </c>
+      <c r="E740" s="2">
+        <v>58.6</v>
+      </c>
+      <c r="F740" s="2">
+        <v>68.5</v>
+      </c>
+      <c r="G740" s="2">
+        <f t="shared" si="474"/>
+        <v>5.86</v>
+      </c>
+      <c r="H740" s="2">
+        <f t="shared" si="473"/>
+        <v>6.85</v>
+      </c>
+      <c r="I740" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J740" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="741" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A741" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B741" s="2">
+        <v>12</v>
+      </c>
+      <c r="C741" s="2">
+        <v>119</v>
+      </c>
+      <c r="D741" s="2">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="E741" s="2">
+        <v>56.2</v>
+      </c>
+      <c r="F741" s="2">
+        <v>65</v>
+      </c>
+      <c r="G741" s="2">
+        <f t="shared" si="474"/>
+        <v>5.62</v>
+      </c>
+      <c r="H741" s="2">
+        <f t="shared" si="473"/>
+        <v>6.5</v>
+      </c>
+      <c r="I741" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J741" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="742" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A742" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B742" s="2">
+        <v>12</v>
+      </c>
+      <c r="C742" s="2">
+        <v>120</v>
+      </c>
+      <c r="D742" s="2">
+        <v>3.6669999999999998</v>
+      </c>
+      <c r="E742" s="2">
+        <v>63.8</v>
+      </c>
+      <c r="F742" s="2">
+        <v>75.7</v>
+      </c>
+      <c r="G742" s="2">
+        <f t="shared" si="474"/>
+        <v>6.38</v>
+      </c>
+      <c r="H742" s="2">
+        <f t="shared" si="473"/>
+        <v>7.57</v>
+      </c>
+      <c r="I742" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J742" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="743" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A743" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B743" s="2">
+        <v>12</v>
+      </c>
+      <c r="C743" s="2">
+        <v>121</v>
+      </c>
+      <c r="D743" s="2">
+        <v>3.363</v>
+      </c>
+      <c r="E743" s="2">
+        <v>61.8</v>
+      </c>
+      <c r="F743" s="2">
+        <v>74</v>
+      </c>
+      <c r="G743" s="2">
+        <f t="shared" si="474"/>
+        <v>6.18</v>
+      </c>
+      <c r="H743" s="2">
+        <f t="shared" si="473"/>
+        <v>7.4</v>
+      </c>
+      <c r="I743" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J743" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="744" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A744" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B744" s="2">
+        <v>12</v>
+      </c>
+      <c r="C744" s="2">
+        <v>122</v>
+      </c>
+      <c r="D744" s="2">
+        <v>2.3620000000000001</v>
+      </c>
+      <c r="E744" s="2">
+        <v>57.5</v>
+      </c>
+      <c r="F744" s="2">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="G744" s="2">
+        <f t="shared" si="474"/>
+        <v>5.75</v>
+      </c>
+      <c r="H744" s="2">
+        <f t="shared" si="473"/>
+        <v>6.76</v>
+      </c>
+      <c r="I744" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J744" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="745" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A745" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B745" s="2">
+        <v>12</v>
+      </c>
+      <c r="C745" s="2">
+        <v>123</v>
+      </c>
+      <c r="D745" s="2">
+        <v>4.5369999999999999</v>
+      </c>
+      <c r="E745" s="2">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="F745" s="2">
+        <v>80</v>
+      </c>
+      <c r="G745" s="2">
+        <f t="shared" si="474"/>
+        <v>6.74</v>
+      </c>
+      <c r="H745" s="2">
+        <f t="shared" si="473"/>
+        <v>8</v>
+      </c>
+      <c r="I745" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J745" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="746" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A746" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B746" s="2">
+        <v>12</v>
+      </c>
+      <c r="C746" s="2">
+        <v>124</v>
+      </c>
+      <c r="D746" s="2">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="E746" s="2">
+        <v>47.3</v>
+      </c>
+      <c r="F746" s="2">
+        <v>54.6</v>
+      </c>
+      <c r="G746" s="2">
+        <f t="shared" si="474"/>
+        <v>4.7299999999999995</v>
+      </c>
+      <c r="H746" s="2">
+        <f t="shared" si="473"/>
+        <v>5.46</v>
+      </c>
+      <c r="I746" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J746" s="2">
+        <v>136813</v>
+      </c>
+    </row>
+    <row r="747" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A747" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B747" s="2">
+        <v>12</v>
+      </c>
+      <c r="C747" s="2">
+        <v>125</v>
+      </c>
+      <c r="D747" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E747" s="2">
+        <v>58</v>
+      </c>
+      <c r="F747" s="2">
+        <v>70.5</v>
+      </c>
+      <c r="G747" s="2">
+        <f t="shared" si="474"/>
+        <v>5.8</v>
+      </c>
+      <c r="H747" s="2">
+        <f t="shared" si="473"/>
+        <v>7.05</v>
+      </c>
+      <c r="I747" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J747" s="2">
+        <v>136813</v>
       </c>
     </row>
   </sheetData>

--- a/Albatross_Raw_Data/Albatross_LWR_Raw_Data.xlsx
+++ b/Albatross_Raw_Data/Albatross_LWR_Raw_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Albatross_Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D084F3-A976-4692-B594-0A7617B68A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2768CCE9-984C-43B1-B549-47BF45248FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="39">
   <si>
     <t>Species</t>
   </si>
@@ -145,6 +145,12 @@
   <si>
     <t>Doboatherina_duodecimalis</t>
   </si>
+  <si>
+    <t>Atherinomorus_endrachtensis</t>
+  </si>
+  <si>
+    <t>7_17_2023</t>
+  </si>
 </sst>
 </file>
 
@@ -162,12 +168,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,6 +186,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -424,11 +433,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K747"/>
+  <dimension ref="A1:K879"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A623" sqref="A623"/>
+      <pane ySplit="1" topLeftCell="A727" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F872" sqref="F872"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -23002,7 +23011,7 @@
         <v>4.5</v>
       </c>
       <c r="H664" s="2">
-        <f t="shared" ref="H664:H747" si="473">F664/10</f>
+        <f t="shared" ref="H664:H871" si="473">F664/10</f>
         <v>5.2200000000000006</v>
       </c>
       <c r="I664" s="3" t="s">
@@ -23032,7 +23041,7 @@
         <v>46.7</v>
       </c>
       <c r="G665" s="2">
-        <f t="shared" ref="G665:G747" si="474">E665/10</f>
+        <f t="shared" ref="G665:G871" si="474">E665/10</f>
         <v>4.3899999999999997</v>
       </c>
       <c r="H665" s="2">
@@ -25833,6 +25842,4286 @@
       <c r="J747" s="2">
         <v>136813</v>
       </c>
+    </row>
+    <row r="748" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A748" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B748" s="2">
+        <v>13</v>
+      </c>
+      <c r="C748" s="2">
+        <v>1</v>
+      </c>
+      <c r="D748" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E748" s="2">
+        <v>48.7</v>
+      </c>
+      <c r="F748" s="2">
+        <v>57.9</v>
+      </c>
+      <c r="G748" s="2">
+        <f t="shared" si="474"/>
+        <v>4.87</v>
+      </c>
+      <c r="H748" s="2">
+        <f t="shared" si="473"/>
+        <v>5.79</v>
+      </c>
+      <c r="I748" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J748" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="749" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A749" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B749" s="2">
+        <v>13</v>
+      </c>
+      <c r="C749" s="2">
+        <v>2</v>
+      </c>
+      <c r="D749" s="2">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="E749" s="2">
+        <v>47.5</v>
+      </c>
+      <c r="F749" s="2">
+        <v>55.9</v>
+      </c>
+      <c r="G749" s="2">
+        <f t="shared" si="474"/>
+        <v>4.75</v>
+      </c>
+      <c r="H749" s="2">
+        <f t="shared" si="473"/>
+        <v>5.59</v>
+      </c>
+      <c r="I749" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J749" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="750" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A750" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B750" s="2">
+        <v>13</v>
+      </c>
+      <c r="C750" s="2">
+        <v>3</v>
+      </c>
+      <c r="D750" s="2">
+        <v>0.754</v>
+      </c>
+      <c r="E750" s="2">
+        <v>39.6</v>
+      </c>
+      <c r="F750" s="2">
+        <v>46.1</v>
+      </c>
+      <c r="G750" s="2">
+        <f t="shared" si="474"/>
+        <v>3.96</v>
+      </c>
+      <c r="H750" s="2">
+        <f t="shared" si="473"/>
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="I750" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J750" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="751" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A751" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B751" s="2">
+        <v>13</v>
+      </c>
+      <c r="C751" s="2">
+        <v>4</v>
+      </c>
+      <c r="D751" s="2">
+        <v>1.738</v>
+      </c>
+      <c r="E751" s="2">
+        <v>50.2</v>
+      </c>
+      <c r="F751" s="2">
+        <v>59</v>
+      </c>
+      <c r="G751" s="2">
+        <f t="shared" si="474"/>
+        <v>5.0200000000000005</v>
+      </c>
+      <c r="H751" s="2">
+        <f t="shared" si="473"/>
+        <v>5.9</v>
+      </c>
+      <c r="I751" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J751" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="752" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A752" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B752" s="2">
+        <v>13</v>
+      </c>
+      <c r="C752" s="2">
+        <v>5</v>
+      </c>
+      <c r="D752" s="2">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="E752" s="2">
+        <v>39</v>
+      </c>
+      <c r="F752" s="2">
+        <v>46.7</v>
+      </c>
+      <c r="G752" s="2">
+        <f t="shared" si="474"/>
+        <v>3.9</v>
+      </c>
+      <c r="H752" s="2">
+        <f t="shared" si="473"/>
+        <v>4.67</v>
+      </c>
+      <c r="I752" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J752" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="753" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A753" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B753" s="2">
+        <v>13</v>
+      </c>
+      <c r="C753" s="2">
+        <v>6</v>
+      </c>
+      <c r="D753" s="2">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="E753" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="F753" s="2">
+        <v>49.1</v>
+      </c>
+      <c r="G753" s="2">
+        <f t="shared" si="474"/>
+        <v>4.17</v>
+      </c>
+      <c r="H753" s="2">
+        <f t="shared" si="473"/>
+        <v>4.91</v>
+      </c>
+      <c r="I753" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J753" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="754" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A754" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B754" s="2">
+        <v>13</v>
+      </c>
+      <c r="C754" s="2">
+        <v>7</v>
+      </c>
+      <c r="D754" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E754" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="F754" s="2">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="G754" s="2">
+        <f t="shared" si="474"/>
+        <v>3.17</v>
+      </c>
+      <c r="H754" s="2">
+        <f t="shared" si="473"/>
+        <v>3.72</v>
+      </c>
+      <c r="I754" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J754" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="755" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A755" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B755" s="2">
+        <v>13</v>
+      </c>
+      <c r="C755" s="2">
+        <v>8</v>
+      </c>
+      <c r="D755" s="2">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="E755" s="2">
+        <v>47</v>
+      </c>
+      <c r="F755" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="G755" s="2">
+        <f t="shared" si="474"/>
+        <v>4.7</v>
+      </c>
+      <c r="H755" s="2">
+        <f t="shared" si="473"/>
+        <v>5.65</v>
+      </c>
+      <c r="I755" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J755" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="756" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A756" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B756" s="2">
+        <v>13</v>
+      </c>
+      <c r="C756" s="2">
+        <v>9</v>
+      </c>
+      <c r="D756" s="2">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="E756" s="2">
+        <v>45.4</v>
+      </c>
+      <c r="F756" s="2">
+        <v>53</v>
+      </c>
+      <c r="G756" s="2">
+        <f t="shared" si="474"/>
+        <v>4.54</v>
+      </c>
+      <c r="H756" s="2">
+        <f t="shared" si="473"/>
+        <v>5.3</v>
+      </c>
+      <c r="I756" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J756" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="757" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A757" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B757" s="2">
+        <v>13</v>
+      </c>
+      <c r="C757" s="2">
+        <v>10</v>
+      </c>
+      <c r="D757" s="2">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="E757" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="F757" s="2">
+        <v>50.1</v>
+      </c>
+      <c r="G757" s="2">
+        <f t="shared" si="474"/>
+        <v>4.17</v>
+      </c>
+      <c r="H757" s="2">
+        <f t="shared" si="473"/>
+        <v>5.01</v>
+      </c>
+      <c r="I757" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J757" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="758" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A758" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B758" s="2">
+        <v>13</v>
+      </c>
+      <c r="C758" s="2">
+        <v>11</v>
+      </c>
+      <c r="D758" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="E758" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="F758" s="2">
+        <v>46.6</v>
+      </c>
+      <c r="G758" s="2">
+        <f t="shared" si="474"/>
+        <v>3.95</v>
+      </c>
+      <c r="H758" s="2">
+        <f t="shared" si="473"/>
+        <v>4.66</v>
+      </c>
+      <c r="I758" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J758" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="759" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A759" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B759" s="2">
+        <v>13</v>
+      </c>
+      <c r="C759" s="2">
+        <v>12</v>
+      </c>
+      <c r="D759" s="2">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E759" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="F759" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="G759" s="2">
+        <f t="shared" si="474"/>
+        <v>4.17</v>
+      </c>
+      <c r="H759" s="2">
+        <f t="shared" si="473"/>
+        <v>4.99</v>
+      </c>
+      <c r="I759" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J759" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="760" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A760" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B760" s="2">
+        <v>13</v>
+      </c>
+      <c r="C760" s="2">
+        <v>13</v>
+      </c>
+      <c r="D760" s="2">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="E760" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="F760" s="2">
+        <v>53.9</v>
+      </c>
+      <c r="G760" s="2">
+        <f t="shared" si="474"/>
+        <v>4.55</v>
+      </c>
+      <c r="H760" s="2">
+        <f t="shared" si="473"/>
+        <v>5.39</v>
+      </c>
+      <c r="I760" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J760" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="761" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A761" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B761" s="2">
+        <v>13</v>
+      </c>
+      <c r="C761" s="2">
+        <v>14</v>
+      </c>
+      <c r="D761" s="2">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E761" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="F761" s="2">
+        <v>47.7</v>
+      </c>
+      <c r="G761" s="2">
+        <f t="shared" si="474"/>
+        <v>4.05</v>
+      </c>
+      <c r="H761" s="2">
+        <f t="shared" si="473"/>
+        <v>4.7700000000000005</v>
+      </c>
+      <c r="I761" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J761" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="762" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A762" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B762" s="2">
+        <v>13</v>
+      </c>
+      <c r="C762" s="2">
+        <v>15</v>
+      </c>
+      <c r="D762" s="2">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="E762" s="2">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F762" s="2">
+        <v>38.1</v>
+      </c>
+      <c r="G762" s="2">
+        <f t="shared" si="474"/>
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="H762" s="2">
+        <f t="shared" si="473"/>
+        <v>3.81</v>
+      </c>
+      <c r="I762" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J762" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="763" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A763" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B763" s="2">
+        <v>13</v>
+      </c>
+      <c r="C763" s="2">
+        <v>16</v>
+      </c>
+      <c r="D763" s="2">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="E763" s="2">
+        <v>42.6</v>
+      </c>
+      <c r="F763" s="2">
+        <v>51.2</v>
+      </c>
+      <c r="G763" s="2">
+        <f t="shared" si="474"/>
+        <v>4.26</v>
+      </c>
+      <c r="H763" s="2">
+        <f t="shared" si="473"/>
+        <v>5.12</v>
+      </c>
+      <c r="I763" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J763" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="764" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A764" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B764" s="2">
+        <v>13</v>
+      </c>
+      <c r="C764" s="2">
+        <v>17</v>
+      </c>
+      <c r="D764" s="2">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="E764" s="2">
+        <v>39</v>
+      </c>
+      <c r="F764" s="2">
+        <v>44.9</v>
+      </c>
+      <c r="G764" s="2">
+        <f t="shared" si="474"/>
+        <v>3.9</v>
+      </c>
+      <c r="H764" s="2">
+        <f t="shared" si="473"/>
+        <v>4.49</v>
+      </c>
+      <c r="I764" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J764" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="765" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A765" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B765" s="2">
+        <v>13</v>
+      </c>
+      <c r="C765" s="2">
+        <v>18</v>
+      </c>
+      <c r="D765" s="2">
+        <v>1.266</v>
+      </c>
+      <c r="E765" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="F765" s="2">
+        <v>53.5</v>
+      </c>
+      <c r="G765" s="2">
+        <f t="shared" si="474"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H765" s="2">
+        <f t="shared" si="473"/>
+        <v>5.35</v>
+      </c>
+      <c r="I765" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J765" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="766" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A766" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B766" s="2">
+        <v>13</v>
+      </c>
+      <c r="C766" s="2">
+        <v>19</v>
+      </c>
+      <c r="D766" s="2">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="E766" s="2">
+        <v>42.4</v>
+      </c>
+      <c r="F766" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="G766" s="2">
+        <f t="shared" si="474"/>
+        <v>4.24</v>
+      </c>
+      <c r="H766" s="2">
+        <f t="shared" si="473"/>
+        <v>4.99</v>
+      </c>
+      <c r="I766" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J766" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="767" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A767" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B767" s="2">
+        <v>13</v>
+      </c>
+      <c r="C767" s="2">
+        <v>20</v>
+      </c>
+      <c r="D767" s="2">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="E767" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="F767" s="2">
+        <v>53.9</v>
+      </c>
+      <c r="G767" s="2">
+        <f t="shared" si="474"/>
+        <v>4.55</v>
+      </c>
+      <c r="H767" s="2">
+        <f t="shared" si="473"/>
+        <v>5.39</v>
+      </c>
+      <c r="I767" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J767" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="768" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A768" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B768" s="2">
+        <v>13</v>
+      </c>
+      <c r="C768" s="2">
+        <v>21</v>
+      </c>
+      <c r="D768" s="2">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E768" s="2">
+        <v>42.7</v>
+      </c>
+      <c r="F768" s="2">
+        <v>49.9</v>
+      </c>
+      <c r="G768" s="2">
+        <f t="shared" si="474"/>
+        <v>4.2700000000000005</v>
+      </c>
+      <c r="H768" s="2">
+        <f t="shared" si="473"/>
+        <v>4.99</v>
+      </c>
+      <c r="I768" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J768" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="769" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A769" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B769" s="2">
+        <v>13</v>
+      </c>
+      <c r="C769" s="2">
+        <v>22</v>
+      </c>
+      <c r="D769" s="2">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="E769" s="2">
+        <v>44.3</v>
+      </c>
+      <c r="F769" s="2">
+        <v>52.8</v>
+      </c>
+      <c r="G769" s="2">
+        <f t="shared" si="474"/>
+        <v>4.43</v>
+      </c>
+      <c r="H769" s="2">
+        <f t="shared" si="473"/>
+        <v>5.2799999999999994</v>
+      </c>
+      <c r="I769" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J769" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="770" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A770" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B770" s="2">
+        <v>13</v>
+      </c>
+      <c r="C770" s="2">
+        <v>23</v>
+      </c>
+      <c r="D770" s="2">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="E770" s="2">
+        <v>42</v>
+      </c>
+      <c r="F770" s="2">
+        <v>49.1</v>
+      </c>
+      <c r="G770" s="2">
+        <f t="shared" si="474"/>
+        <v>4.2</v>
+      </c>
+      <c r="H770" s="2">
+        <f t="shared" si="473"/>
+        <v>4.91</v>
+      </c>
+      <c r="I770" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J770" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="771" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A771" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B771" s="2">
+        <v>13</v>
+      </c>
+      <c r="C771" s="2">
+        <v>24</v>
+      </c>
+      <c r="D771" s="2">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="E771" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="F771" s="2">
+        <v>47.9</v>
+      </c>
+      <c r="G771" s="2">
+        <f t="shared" si="474"/>
+        <v>4.2299999999999995</v>
+      </c>
+      <c r="H771" s="2">
+        <f t="shared" si="473"/>
+        <v>4.79</v>
+      </c>
+      <c r="I771" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J771" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="772" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A772" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B772" s="2">
+        <v>13</v>
+      </c>
+      <c r="C772" s="2">
+        <v>25</v>
+      </c>
+      <c r="D772" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E772" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="F772" s="2">
+        <v>44.7</v>
+      </c>
+      <c r="G772" s="2">
+        <f t="shared" si="474"/>
+        <v>3.7399999999999998</v>
+      </c>
+      <c r="H772" s="2">
+        <f t="shared" si="473"/>
+        <v>4.4700000000000006</v>
+      </c>
+      <c r="I772" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J772" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="773" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A773" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B773" s="2">
+        <v>13</v>
+      </c>
+      <c r="C773" s="2">
+        <v>26</v>
+      </c>
+      <c r="D773" s="2">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="E773" s="2">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="F773" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="G773" s="2">
+        <f t="shared" si="474"/>
+        <v>3.88</v>
+      </c>
+      <c r="H773" s="2">
+        <f t="shared" si="473"/>
+        <v>4.45</v>
+      </c>
+      <c r="I773" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J773" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="774" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A774" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B774" s="2">
+        <v>13</v>
+      </c>
+      <c r="C774" s="2">
+        <v>27</v>
+      </c>
+      <c r="D774" s="2">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="E774" s="2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F774" s="2">
+        <v>47.5</v>
+      </c>
+      <c r="G774" s="2">
+        <f t="shared" si="474"/>
+        <v>4.07</v>
+      </c>
+      <c r="H774" s="2">
+        <f t="shared" si="473"/>
+        <v>4.75</v>
+      </c>
+      <c r="I774" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J774" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="775" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A775" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B775" s="2">
+        <v>13</v>
+      </c>
+      <c r="C775" s="2">
+        <v>28</v>
+      </c>
+      <c r="D775" s="2">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="E775" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="F775" s="2">
+        <v>44.6</v>
+      </c>
+      <c r="G775" s="2">
+        <f t="shared" si="474"/>
+        <v>3.7399999999999998</v>
+      </c>
+      <c r="H775" s="2">
+        <f t="shared" si="473"/>
+        <v>4.46</v>
+      </c>
+      <c r="I775" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J775" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="776" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A776" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B776" s="2">
+        <v>13</v>
+      </c>
+      <c r="C776" s="2">
+        <v>29</v>
+      </c>
+      <c r="D776" s="2">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E776" s="2">
+        <v>31.4</v>
+      </c>
+      <c r="F776" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G776" s="2">
+        <f t="shared" si="474"/>
+        <v>3.1399999999999997</v>
+      </c>
+      <c r="H776" s="2">
+        <f t="shared" si="473"/>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="I776" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J776" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="777" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A777" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B777" s="2">
+        <v>13</v>
+      </c>
+      <c r="C777" s="2">
+        <v>30</v>
+      </c>
+      <c r="D777" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="E777" s="2">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="F777" s="2">
+        <v>46.3</v>
+      </c>
+      <c r="G777" s="2">
+        <f t="shared" si="474"/>
+        <v>4.0299999999999994</v>
+      </c>
+      <c r="H777" s="2">
+        <f t="shared" si="473"/>
+        <v>4.63</v>
+      </c>
+      <c r="I777" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J777" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="778" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A778" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B778" s="2">
+        <v>13</v>
+      </c>
+      <c r="C778" s="2">
+        <v>31</v>
+      </c>
+      <c r="D778" s="2">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="E778" s="2">
+        <v>45</v>
+      </c>
+      <c r="F778" s="2">
+        <v>52.4</v>
+      </c>
+      <c r="G778" s="2">
+        <f t="shared" si="474"/>
+        <v>4.5</v>
+      </c>
+      <c r="H778" s="2">
+        <f t="shared" si="473"/>
+        <v>5.24</v>
+      </c>
+      <c r="I778" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J778" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="779" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A779" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B779" s="2">
+        <v>13</v>
+      </c>
+      <c r="C779" s="2">
+        <v>32</v>
+      </c>
+      <c r="D779" s="2">
+        <v>1.054</v>
+      </c>
+      <c r="E779" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="F779" s="2">
+        <v>50.7</v>
+      </c>
+      <c r="G779" s="2">
+        <f t="shared" si="474"/>
+        <v>4.25</v>
+      </c>
+      <c r="H779" s="2">
+        <f t="shared" si="473"/>
+        <v>5.07</v>
+      </c>
+      <c r="I779" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J779" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="780" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A780" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B780" s="2">
+        <v>13</v>
+      </c>
+      <c r="C780" s="2">
+        <v>33</v>
+      </c>
+      <c r="D780" s="2">
+        <v>1.216</v>
+      </c>
+      <c r="E780" s="2">
+        <v>45.8</v>
+      </c>
+      <c r="F780" s="2">
+        <v>53.9</v>
+      </c>
+      <c r="G780" s="2">
+        <f t="shared" si="474"/>
+        <v>4.58</v>
+      </c>
+      <c r="H780" s="2">
+        <f t="shared" si="473"/>
+        <v>5.39</v>
+      </c>
+      <c r="I780" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J780" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="781" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A781" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B781" s="2">
+        <v>13</v>
+      </c>
+      <c r="C781" s="2">
+        <v>34</v>
+      </c>
+      <c r="D781" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="E781" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="F781" s="2">
+        <v>50.1</v>
+      </c>
+      <c r="G781" s="2">
+        <f t="shared" si="474"/>
+        <v>4.29</v>
+      </c>
+      <c r="H781" s="2">
+        <f t="shared" si="473"/>
+        <v>5.01</v>
+      </c>
+      <c r="I781" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J781" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="782" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A782" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B782" s="2">
+        <v>13</v>
+      </c>
+      <c r="C782" s="2">
+        <v>35</v>
+      </c>
+      <c r="D782" s="2">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="E782" s="2">
+        <v>41</v>
+      </c>
+      <c r="F782" s="2">
+        <v>50.1</v>
+      </c>
+      <c r="G782" s="2">
+        <f t="shared" si="474"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H782" s="2">
+        <f t="shared" si="473"/>
+        <v>5.01</v>
+      </c>
+      <c r="I782" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J782" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="783" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A783" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B783" s="2">
+        <v>13</v>
+      </c>
+      <c r="C783" s="2">
+        <v>36</v>
+      </c>
+      <c r="D783" s="2">
+        <v>1.181</v>
+      </c>
+      <c r="E783" s="2">
+        <v>44.9</v>
+      </c>
+      <c r="F783" s="2">
+        <v>52.8</v>
+      </c>
+      <c r="G783" s="2">
+        <f t="shared" si="474"/>
+        <v>4.49</v>
+      </c>
+      <c r="H783" s="2">
+        <f t="shared" si="473"/>
+        <v>5.2799999999999994</v>
+      </c>
+      <c r="I783" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J783" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="784" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A784" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B784" s="2">
+        <v>13</v>
+      </c>
+      <c r="C784" s="2">
+        <v>37</v>
+      </c>
+      <c r="D784" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="E784" s="2">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="F784" s="2">
+        <v>45.9</v>
+      </c>
+      <c r="G784" s="2">
+        <f t="shared" si="474"/>
+        <v>4.0299999999999994</v>
+      </c>
+      <c r="H784" s="2">
+        <f t="shared" si="473"/>
+        <v>4.59</v>
+      </c>
+      <c r="I784" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J784" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="785" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A785" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B785" s="2">
+        <v>13</v>
+      </c>
+      <c r="C785" s="2">
+        <v>38</v>
+      </c>
+      <c r="D785" s="2">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="E785" s="2">
+        <v>40.9</v>
+      </c>
+      <c r="F785" s="2">
+        <v>48.1</v>
+      </c>
+      <c r="G785" s="2">
+        <f t="shared" si="474"/>
+        <v>4.09</v>
+      </c>
+      <c r="H785" s="2">
+        <f t="shared" si="473"/>
+        <v>4.8100000000000005</v>
+      </c>
+      <c r="I785" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J785" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="786" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A786" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B786" s="2">
+        <v>13</v>
+      </c>
+      <c r="C786" s="2">
+        <v>39</v>
+      </c>
+      <c r="D786" s="2">
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="E786" s="2">
+        <v>46.3</v>
+      </c>
+      <c r="F786" s="2">
+        <v>54.7</v>
+      </c>
+      <c r="G786" s="2">
+        <f t="shared" si="474"/>
+        <v>4.63</v>
+      </c>
+      <c r="H786" s="2">
+        <f t="shared" si="473"/>
+        <v>5.4700000000000006</v>
+      </c>
+      <c r="I786" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J786" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="787" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A787" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B787" s="2">
+        <v>13</v>
+      </c>
+      <c r="C787" s="2">
+        <v>40</v>
+      </c>
+      <c r="D787" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="E787" s="2">
+        <v>41.3</v>
+      </c>
+      <c r="F787" s="2">
+        <v>48.4</v>
+      </c>
+      <c r="G787" s="2">
+        <f t="shared" si="474"/>
+        <v>4.13</v>
+      </c>
+      <c r="H787" s="2">
+        <f t="shared" si="473"/>
+        <v>4.84</v>
+      </c>
+      <c r="I787" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J787" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="788" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A788" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B788" s="2">
+        <v>13</v>
+      </c>
+      <c r="C788" s="2">
+        <v>41</v>
+      </c>
+      <c r="D788" s="2">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="E788" s="2">
+        <v>39.6</v>
+      </c>
+      <c r="F788" s="2">
+        <v>46</v>
+      </c>
+      <c r="G788" s="2">
+        <f t="shared" si="474"/>
+        <v>3.96</v>
+      </c>
+      <c r="H788" s="2">
+        <f t="shared" si="473"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I788" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J788" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="789" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A789" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B789" s="2">
+        <v>13</v>
+      </c>
+      <c r="C789" s="2">
+        <v>42</v>
+      </c>
+      <c r="D789" s="2">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="E789" s="2">
+        <v>41</v>
+      </c>
+      <c r="F789" s="2">
+        <v>47.4</v>
+      </c>
+      <c r="G789" s="2">
+        <f t="shared" si="474"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H789" s="2">
+        <f t="shared" si="473"/>
+        <v>4.74</v>
+      </c>
+      <c r="I789" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J789" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="790" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A790" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B790" s="2">
+        <v>13</v>
+      </c>
+      <c r="C790" s="2">
+        <v>43</v>
+      </c>
+      <c r="D790" s="2">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E790" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="F790" s="2">
+        <v>43</v>
+      </c>
+      <c r="G790" s="2">
+        <f t="shared" si="474"/>
+        <v>3.65</v>
+      </c>
+      <c r="H790" s="2">
+        <f t="shared" si="473"/>
+        <v>4.3</v>
+      </c>
+      <c r="I790" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J790" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="791" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A791" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B791" s="2">
+        <v>13</v>
+      </c>
+      <c r="C791" s="2">
+        <v>44</v>
+      </c>
+      <c r="D791" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E791" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="F791" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="G791" s="2">
+        <f t="shared" si="474"/>
+        <v>3.08</v>
+      </c>
+      <c r="H791" s="2">
+        <f t="shared" si="473"/>
+        <v>3.84</v>
+      </c>
+      <c r="I791" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J791" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="792" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A792" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B792" s="2">
+        <v>13</v>
+      </c>
+      <c r="C792" s="2">
+        <v>45</v>
+      </c>
+      <c r="D792" s="2">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="E792" s="2">
+        <v>41</v>
+      </c>
+      <c r="F792" s="2">
+        <v>52.4</v>
+      </c>
+      <c r="G792" s="2">
+        <f t="shared" si="474"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H792" s="2">
+        <f t="shared" si="473"/>
+        <v>5.24</v>
+      </c>
+      <c r="I792" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J792" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="793" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A793" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B793" s="2">
+        <v>13</v>
+      </c>
+      <c r="C793" s="2">
+        <v>46</v>
+      </c>
+      <c r="D793" s="2">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="E793" s="2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F793" s="2">
+        <v>46.4</v>
+      </c>
+      <c r="G793" s="2">
+        <f t="shared" si="474"/>
+        <v>3.9299999999999997</v>
+      </c>
+      <c r="H793" s="2">
+        <f t="shared" si="473"/>
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="I793" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J793" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="794" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A794" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B794" s="2">
+        <v>13</v>
+      </c>
+      <c r="C794" s="2">
+        <v>47</v>
+      </c>
+      <c r="D794" s="2">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="E794" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="F794" s="2">
+        <v>51.1</v>
+      </c>
+      <c r="G794" s="2">
+        <f t="shared" si="474"/>
+        <v>4.32</v>
+      </c>
+      <c r="H794" s="2">
+        <f t="shared" si="473"/>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I794" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J794" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="795" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A795" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B795" s="2">
+        <v>13</v>
+      </c>
+      <c r="C795" s="2">
+        <v>48</v>
+      </c>
+      <c r="D795" s="2">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E795" s="2">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="F795" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="G795" s="2">
+        <f t="shared" si="474"/>
+        <v>3.53</v>
+      </c>
+      <c r="H795" s="2">
+        <f t="shared" si="473"/>
+        <v>4.29</v>
+      </c>
+      <c r="I795" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J795" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="796" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A796" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B796" s="2">
+        <v>13</v>
+      </c>
+      <c r="C796" s="2">
+        <v>49</v>
+      </c>
+      <c r="D796" s="2">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E796" s="2">
+        <v>31.3</v>
+      </c>
+      <c r="F796" s="2">
+        <v>36.9</v>
+      </c>
+      <c r="G796" s="2">
+        <f t="shared" si="474"/>
+        <v>3.13</v>
+      </c>
+      <c r="H796" s="2">
+        <f t="shared" si="473"/>
+        <v>3.69</v>
+      </c>
+      <c r="I796" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J796" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="797" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A797" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B797" s="2">
+        <v>13</v>
+      </c>
+      <c r="C797" s="2">
+        <v>50</v>
+      </c>
+      <c r="D797" s="2">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="E797" s="2">
+        <v>43.9</v>
+      </c>
+      <c r="F797" s="2">
+        <v>51.9</v>
+      </c>
+      <c r="G797" s="2">
+        <f t="shared" si="474"/>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H797" s="2">
+        <f t="shared" si="473"/>
+        <v>5.1899999999999995</v>
+      </c>
+      <c r="I797" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J797" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="798" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A798" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B798" s="2">
+        <v>13</v>
+      </c>
+      <c r="C798" s="2">
+        <v>51</v>
+      </c>
+      <c r="D798" s="2">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E798" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="F798" s="2">
+        <v>39.1</v>
+      </c>
+      <c r="G798" s="2">
+        <f t="shared" si="474"/>
+        <v>3.35</v>
+      </c>
+      <c r="H798" s="2">
+        <f t="shared" si="473"/>
+        <v>3.91</v>
+      </c>
+      <c r="I798" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J798" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="799" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A799" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B799" s="2">
+        <v>13</v>
+      </c>
+      <c r="C799" s="2">
+        <v>52</v>
+      </c>
+      <c r="D799" s="2">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E799" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="F799" s="2">
+        <v>44.6</v>
+      </c>
+      <c r="G799" s="2">
+        <f t="shared" si="474"/>
+        <v>4.05</v>
+      </c>
+      <c r="H799" s="2">
+        <f t="shared" si="473"/>
+        <v>4.46</v>
+      </c>
+      <c r="I799" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J799" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="800" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A800" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B800" s="2">
+        <v>13</v>
+      </c>
+      <c r="C800" s="2">
+        <v>53</v>
+      </c>
+      <c r="D800" s="2">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="E800" s="2">
+        <v>44.8</v>
+      </c>
+      <c r="F800" s="2">
+        <v>53.6</v>
+      </c>
+      <c r="G800" s="2">
+        <f t="shared" si="474"/>
+        <v>4.4799999999999995</v>
+      </c>
+      <c r="H800" s="2">
+        <f t="shared" si="473"/>
+        <v>5.36</v>
+      </c>
+      <c r="I800" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J800" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="801" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A801" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B801" s="2">
+        <v>13</v>
+      </c>
+      <c r="C801" s="2">
+        <v>54</v>
+      </c>
+      <c r="D801" s="2">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E801" s="2">
+        <v>38</v>
+      </c>
+      <c r="F801" s="2">
+        <v>43.8</v>
+      </c>
+      <c r="G801" s="2">
+        <f t="shared" si="474"/>
+        <v>3.8</v>
+      </c>
+      <c r="H801" s="2">
+        <f t="shared" si="473"/>
+        <v>4.38</v>
+      </c>
+      <c r="I801" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J801" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="802" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A802" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B802" s="2">
+        <v>13</v>
+      </c>
+      <c r="C802" s="2">
+        <v>55</v>
+      </c>
+      <c r="D802" s="2">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="E802" s="2">
+        <v>43.7</v>
+      </c>
+      <c r="F802" s="2">
+        <v>51.1</v>
+      </c>
+      <c r="G802" s="2">
+        <f t="shared" si="474"/>
+        <v>4.37</v>
+      </c>
+      <c r="H802" s="2">
+        <f t="shared" si="473"/>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I802" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J802" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="803" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A803" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B803" s="2">
+        <v>13</v>
+      </c>
+      <c r="C803" s="2">
+        <v>56</v>
+      </c>
+      <c r="D803" s="2">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="E803" s="2">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="F803" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="G803" s="2">
+        <f t="shared" si="474"/>
+        <v>3.5700000000000003</v>
+      </c>
+      <c r="H803" s="2">
+        <f t="shared" si="473"/>
+        <v>4.2299999999999995</v>
+      </c>
+      <c r="I803" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J803" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="804" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A804" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B804" s="2">
+        <v>13</v>
+      </c>
+      <c r="C804" s="2">
+        <v>57</v>
+      </c>
+      <c r="D804" s="2">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E804" s="2">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="F804" s="2">
+        <v>47.7</v>
+      </c>
+      <c r="G804" s="2">
+        <f t="shared" si="474"/>
+        <v>4.0200000000000005</v>
+      </c>
+      <c r="H804" s="2">
+        <f t="shared" si="473"/>
+        <v>4.7700000000000005</v>
+      </c>
+      <c r="I804" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J804" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="805" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A805" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B805" s="2">
+        <v>13</v>
+      </c>
+      <c r="C805" s="2">
+        <v>58</v>
+      </c>
+      <c r="D805" s="2">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="E805" s="2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F805" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="G805" s="2">
+        <f t="shared" si="474"/>
+        <v>4.07</v>
+      </c>
+      <c r="H805" s="2">
+        <f t="shared" si="473"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I805" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J805" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="806" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A806" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B806" s="2">
+        <v>13</v>
+      </c>
+      <c r="C806" s="2">
+        <v>59</v>
+      </c>
+      <c r="D806" s="2">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="E806" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="F806" s="2">
+        <v>46.6</v>
+      </c>
+      <c r="G806" s="2">
+        <f t="shared" si="474"/>
+        <v>4.05</v>
+      </c>
+      <c r="H806" s="2">
+        <f t="shared" si="473"/>
+        <v>4.66</v>
+      </c>
+      <c r="I806" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J806" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="807" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A807" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B807" s="2">
+        <v>13</v>
+      </c>
+      <c r="C807" s="2">
+        <v>60</v>
+      </c>
+      <c r="D807" s="2">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="E807" s="2">
+        <v>42.6</v>
+      </c>
+      <c r="F807" s="2">
+        <v>50.2</v>
+      </c>
+      <c r="G807" s="2">
+        <f t="shared" si="474"/>
+        <v>4.26</v>
+      </c>
+      <c r="H807" s="2">
+        <f t="shared" si="473"/>
+        <v>5.0200000000000005</v>
+      </c>
+      <c r="I807" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J807" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="808" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A808" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B808" s="2">
+        <v>13</v>
+      </c>
+      <c r="C808" s="2">
+        <v>61</v>
+      </c>
+      <c r="D808" s="2">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E808" s="2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F808" s="2">
+        <v>48.8</v>
+      </c>
+      <c r="G808" s="2">
+        <f t="shared" si="474"/>
+        <v>4.07</v>
+      </c>
+      <c r="H808" s="2">
+        <f t="shared" si="473"/>
+        <v>4.88</v>
+      </c>
+      <c r="I808" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J808" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="809" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A809" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B809" s="2">
+        <v>13</v>
+      </c>
+      <c r="C809" s="2">
+        <v>62</v>
+      </c>
+      <c r="D809" s="2">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="E809" s="2">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="F809" s="2">
+        <v>45.6</v>
+      </c>
+      <c r="G809" s="2">
+        <f t="shared" si="474"/>
+        <v>4.0299999999999994</v>
+      </c>
+      <c r="H809" s="2">
+        <f t="shared" si="473"/>
+        <v>4.5600000000000005</v>
+      </c>
+      <c r="I809" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J809" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="810" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A810" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B810" s="2">
+        <v>13</v>
+      </c>
+      <c r="C810" s="2">
+        <v>63</v>
+      </c>
+      <c r="D810" s="2">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="E810" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="F810" s="2">
+        <v>49.2</v>
+      </c>
+      <c r="G810" s="2">
+        <f t="shared" si="474"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H810" s="2">
+        <f t="shared" si="473"/>
+        <v>4.92</v>
+      </c>
+      <c r="I810" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J810" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="811" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A811" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B811" s="2">
+        <v>13</v>
+      </c>
+      <c r="C811" s="2">
+        <v>64</v>
+      </c>
+      <c r="D811" s="2">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="E811" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="F811" s="2">
+        <v>50.9</v>
+      </c>
+      <c r="G811" s="2">
+        <f t="shared" si="474"/>
+        <v>4.29</v>
+      </c>
+      <c r="H811" s="2">
+        <f t="shared" si="473"/>
+        <v>5.09</v>
+      </c>
+      <c r="I811" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J811" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="812" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A812" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B812" s="2">
+        <v>13</v>
+      </c>
+      <c r="C812" s="2">
+        <v>65</v>
+      </c>
+      <c r="D812" s="2">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="E812" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F812" s="2">
+        <v>43.6</v>
+      </c>
+      <c r="G812" s="2">
+        <f t="shared" si="474"/>
+        <v>3.6799999999999997</v>
+      </c>
+      <c r="H812" s="2">
+        <f t="shared" si="473"/>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="I812" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J812" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="813" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A813" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B813" s="2">
+        <v>13</v>
+      </c>
+      <c r="C813" s="2">
+        <v>66</v>
+      </c>
+      <c r="D813" s="2">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="E813" s="2">
+        <v>44.3</v>
+      </c>
+      <c r="F813" s="2">
+        <v>53</v>
+      </c>
+      <c r="G813" s="2">
+        <f t="shared" si="474"/>
+        <v>4.43</v>
+      </c>
+      <c r="H813" s="2">
+        <f t="shared" si="473"/>
+        <v>5.3</v>
+      </c>
+      <c r="I813" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J813" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="814" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A814" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B814" s="2">
+        <v>13</v>
+      </c>
+      <c r="C814" s="2">
+        <v>67</v>
+      </c>
+      <c r="D814" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E814" s="2">
+        <v>36.4</v>
+      </c>
+      <c r="F814" s="2">
+        <v>42.4</v>
+      </c>
+      <c r="G814" s="2">
+        <f t="shared" si="474"/>
+        <v>3.6399999999999997</v>
+      </c>
+      <c r="H814" s="2">
+        <f t="shared" si="473"/>
+        <v>4.24</v>
+      </c>
+      <c r="I814" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J814" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="815" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A815" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B815" s="2">
+        <v>13</v>
+      </c>
+      <c r="C815" s="2">
+        <v>68</v>
+      </c>
+      <c r="D815" s="2">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E815" s="2">
+        <v>29</v>
+      </c>
+      <c r="F815" s="2">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G815" s="2">
+        <f t="shared" si="474"/>
+        <v>2.9</v>
+      </c>
+      <c r="H815" s="2">
+        <f t="shared" si="473"/>
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="I815" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J815" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="816" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A816" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B816" s="2">
+        <v>13</v>
+      </c>
+      <c r="C816" s="2">
+        <v>69</v>
+      </c>
+      <c r="D816" s="2">
+        <v>0.311</v>
+      </c>
+      <c r="E816" s="2">
+        <v>31</v>
+      </c>
+      <c r="F816" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G816" s="2">
+        <f t="shared" si="474"/>
+        <v>3.1</v>
+      </c>
+      <c r="H816" s="2">
+        <f t="shared" si="473"/>
+        <v>3.5799999999999996</v>
+      </c>
+      <c r="I816" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J816" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="817" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A817" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B817" s="2">
+        <v>13</v>
+      </c>
+      <c r="C817" s="2">
+        <v>70</v>
+      </c>
+      <c r="D817" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="E817" s="2">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="F817" s="2">
+        <v>43</v>
+      </c>
+      <c r="G817" s="2">
+        <f t="shared" si="474"/>
+        <v>3.72</v>
+      </c>
+      <c r="H817" s="2">
+        <f t="shared" si="473"/>
+        <v>4.3</v>
+      </c>
+      <c r="I817" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J817" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="818" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A818" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B818" s="2">
+        <v>13</v>
+      </c>
+      <c r="C818" s="2">
+        <v>71</v>
+      </c>
+      <c r="D818" s="2">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="E818" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="F818" s="2">
+        <v>46</v>
+      </c>
+      <c r="G818" s="2">
+        <f t="shared" si="474"/>
+        <v>4.05</v>
+      </c>
+      <c r="H818" s="2">
+        <f t="shared" si="473"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I818" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J818" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="819" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A819" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B819" s="2">
+        <v>13</v>
+      </c>
+      <c r="C819" s="2">
+        <v>72</v>
+      </c>
+      <c r="D819" s="2">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="E819" s="2">
+        <v>39</v>
+      </c>
+      <c r="F819" s="2">
+        <v>47.5</v>
+      </c>
+      <c r="G819" s="2">
+        <f t="shared" si="474"/>
+        <v>3.9</v>
+      </c>
+      <c r="H819" s="2">
+        <f t="shared" si="473"/>
+        <v>4.75</v>
+      </c>
+      <c r="I819" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J819" s="2">
+        <v>136807</v>
+      </c>
+    </row>
+    <row r="820" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A820" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B820" s="2">
+        <v>13</v>
+      </c>
+      <c r="C820" s="2">
+        <v>73</v>
+      </c>
+      <c r="D820" s="2">
+        <v>5.5389999999999997</v>
+      </c>
+      <c r="E820" s="2">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="F820" s="2">
+        <v>80.2</v>
+      </c>
+      <c r="G820" s="2">
+        <f t="shared" si="474"/>
+        <v>6.7900000000000009</v>
+      </c>
+      <c r="H820" s="2">
+        <f t="shared" si="473"/>
+        <v>8.02</v>
+      </c>
+      <c r="I820" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J820" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="821" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A821" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B821" s="2">
+        <v>13</v>
+      </c>
+      <c r="C821" s="2">
+        <v>74</v>
+      </c>
+      <c r="D821" s="2">
+        <v>5.73</v>
+      </c>
+      <c r="E821" s="2">
+        <v>65.7</v>
+      </c>
+      <c r="F821" s="2">
+        <v>82.4</v>
+      </c>
+      <c r="G821" s="2">
+        <f t="shared" si="474"/>
+        <v>6.57</v>
+      </c>
+      <c r="H821" s="2">
+        <f t="shared" si="473"/>
+        <v>8.24</v>
+      </c>
+      <c r="I821" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J821" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="822" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A822" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B822" s="2">
+        <v>13</v>
+      </c>
+      <c r="C822" s="2">
+        <v>75</v>
+      </c>
+      <c r="D822" s="2">
+        <v>9.2780000000000005</v>
+      </c>
+      <c r="E822" s="2">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="F822" s="2">
+        <v>96.1</v>
+      </c>
+      <c r="G822" s="2">
+        <f t="shared" si="474"/>
+        <v>7.69</v>
+      </c>
+      <c r="H822" s="2">
+        <f t="shared" si="473"/>
+        <v>9.61</v>
+      </c>
+      <c r="I822" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J822" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="823" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A823" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B823" s="2">
+        <v>13</v>
+      </c>
+      <c r="C823" s="2">
+        <v>76</v>
+      </c>
+      <c r="D823" s="2">
+        <v>5.08</v>
+      </c>
+      <c r="E823" s="2">
+        <v>64.8</v>
+      </c>
+      <c r="F823" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="G823" s="2">
+        <f t="shared" si="474"/>
+        <v>6.4799999999999995</v>
+      </c>
+      <c r="H823" s="2">
+        <f t="shared" si="473"/>
+        <v>7.9799999999999995</v>
+      </c>
+      <c r="I823" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J823" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="824" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A824" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B824" s="2">
+        <v>13</v>
+      </c>
+      <c r="C824" s="2">
+        <v>77</v>
+      </c>
+      <c r="D824" s="2">
+        <v>7.5069999999999997</v>
+      </c>
+      <c r="E824" s="2">
+        <v>71.2</v>
+      </c>
+      <c r="F824" s="2">
+        <v>85.9</v>
+      </c>
+      <c r="G824" s="2">
+        <f t="shared" si="474"/>
+        <v>7.12</v>
+      </c>
+      <c r="H824" s="2">
+        <f t="shared" si="473"/>
+        <v>8.59</v>
+      </c>
+      <c r="I824" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J824" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="825" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A825" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B825" s="2">
+        <v>13</v>
+      </c>
+      <c r="C825" s="2">
+        <v>78</v>
+      </c>
+      <c r="D825" s="2">
+        <v>6.8940000000000001</v>
+      </c>
+      <c r="E825" s="2">
+        <v>74.2</v>
+      </c>
+      <c r="F825" s="2">
+        <v>89.6</v>
+      </c>
+      <c r="G825" s="2">
+        <f t="shared" si="474"/>
+        <v>7.42</v>
+      </c>
+      <c r="H825" s="2">
+        <f t="shared" si="473"/>
+        <v>8.9599999999999991</v>
+      </c>
+      <c r="I825" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J825" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="826" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A826" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B826" s="2">
+        <v>13</v>
+      </c>
+      <c r="C826" s="2">
+        <v>79</v>
+      </c>
+      <c r="D826" s="2">
+        <v>6.0620000000000003</v>
+      </c>
+      <c r="E826" s="2">
+        <v>68.5</v>
+      </c>
+      <c r="F826" s="2">
+        <v>84.7</v>
+      </c>
+      <c r="G826" s="2">
+        <f t="shared" si="474"/>
+        <v>6.85</v>
+      </c>
+      <c r="H826" s="2">
+        <f t="shared" si="473"/>
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="I826" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J826" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="827" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A827" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B827" s="2">
+        <v>13</v>
+      </c>
+      <c r="C827" s="2">
+        <v>80</v>
+      </c>
+      <c r="D827" s="2">
+        <v>0.496</v>
+      </c>
+      <c r="E827" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F827" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="G827" s="2">
+        <f t="shared" si="474"/>
+        <v>3.4799999999999995</v>
+      </c>
+      <c r="H827" s="2">
+        <f t="shared" si="473"/>
+        <v>3.9899999999999998</v>
+      </c>
+      <c r="I827" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J827" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="828" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A828" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B828" s="2">
+        <v>13</v>
+      </c>
+      <c r="C828" s="2">
+        <v>81</v>
+      </c>
+      <c r="D828" s="2">
+        <v>8.1690000000000005</v>
+      </c>
+      <c r="E828" s="2">
+        <v>74.5</v>
+      </c>
+      <c r="F828" s="2">
+        <v>91.6</v>
+      </c>
+      <c r="G828" s="2">
+        <f t="shared" si="474"/>
+        <v>7.45</v>
+      </c>
+      <c r="H828" s="2">
+        <f t="shared" si="473"/>
+        <v>9.16</v>
+      </c>
+      <c r="I828" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J828" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="829" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A829" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B829" s="2">
+        <v>13</v>
+      </c>
+      <c r="C829" s="2">
+        <v>82</v>
+      </c>
+      <c r="D829" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="E829" s="2">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="F829" s="2">
+        <v>79.5</v>
+      </c>
+      <c r="G829" s="2">
+        <f t="shared" si="474"/>
+        <v>6.7900000000000009</v>
+      </c>
+      <c r="H829" s="2">
+        <f t="shared" si="473"/>
+        <v>7.95</v>
+      </c>
+      <c r="I829" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J829" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="830" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A830" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B830" s="2">
+        <v>13</v>
+      </c>
+      <c r="C830" s="2">
+        <v>83</v>
+      </c>
+      <c r="D830" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="E830" s="2">
+        <v>58.8</v>
+      </c>
+      <c r="F830" s="2">
+        <v>71.3</v>
+      </c>
+      <c r="G830" s="2">
+        <f t="shared" si="474"/>
+        <v>5.88</v>
+      </c>
+      <c r="H830" s="2">
+        <f t="shared" si="473"/>
+        <v>7.13</v>
+      </c>
+      <c r="I830" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J830" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="831" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A831" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B831" s="2">
+        <v>13</v>
+      </c>
+      <c r="C831" s="2">
+        <v>84</v>
+      </c>
+      <c r="D831" s="2">
+        <v>3.0579999999999998</v>
+      </c>
+      <c r="E831" s="2">
+        <v>56.3</v>
+      </c>
+      <c r="F831" s="2">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="G831" s="2">
+        <f t="shared" si="474"/>
+        <v>5.63</v>
+      </c>
+      <c r="H831" s="2">
+        <f t="shared" si="473"/>
+        <v>6.69</v>
+      </c>
+      <c r="I831" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J831" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="832" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A832" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B832" s="2">
+        <v>13</v>
+      </c>
+      <c r="C832" s="2">
+        <v>85</v>
+      </c>
+      <c r="D832" s="2">
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="E832" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="F832" s="2">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="G832" s="2">
+        <f t="shared" si="474"/>
+        <v>5.65</v>
+      </c>
+      <c r="H832" s="2">
+        <f t="shared" si="473"/>
+        <v>6.8599999999999994</v>
+      </c>
+      <c r="I832" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J832" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="833" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A833" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B833" s="2">
+        <v>13</v>
+      </c>
+      <c r="C833" s="2">
+        <v>86</v>
+      </c>
+      <c r="D833" s="2">
+        <v>3.0179999999999998</v>
+      </c>
+      <c r="E833" s="2">
+        <v>56.7</v>
+      </c>
+      <c r="F833" s="2">
+        <v>68.7</v>
+      </c>
+      <c r="G833" s="2">
+        <f t="shared" si="474"/>
+        <v>5.67</v>
+      </c>
+      <c r="H833" s="2">
+        <f t="shared" si="473"/>
+        <v>6.87</v>
+      </c>
+      <c r="I833" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J833" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="834" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A834" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B834" s="2">
+        <v>13</v>
+      </c>
+      <c r="C834" s="2">
+        <v>87</v>
+      </c>
+      <c r="D834" s="2">
+        <v>3.9910000000000001</v>
+      </c>
+      <c r="E834" s="2">
+        <v>61</v>
+      </c>
+      <c r="F834" s="2">
+        <v>76.2</v>
+      </c>
+      <c r="G834" s="2">
+        <f t="shared" si="474"/>
+        <v>6.1</v>
+      </c>
+      <c r="H834" s="2">
+        <f t="shared" si="473"/>
+        <v>7.62</v>
+      </c>
+      <c r="I834" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J834" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="835" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A835" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B835" s="2">
+        <v>13</v>
+      </c>
+      <c r="C835" s="2">
+        <v>88</v>
+      </c>
+      <c r="D835" s="2">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="E835" s="2">
+        <v>59.9</v>
+      </c>
+      <c r="F835" s="2">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="G835" s="2">
+        <f t="shared" si="474"/>
+        <v>5.99</v>
+      </c>
+      <c r="H835" s="2">
+        <f t="shared" si="473"/>
+        <v>7.24</v>
+      </c>
+      <c r="I835" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J835" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="836" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A836" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B836" s="2">
+        <v>13</v>
+      </c>
+      <c r="C836" s="2">
+        <v>89</v>
+      </c>
+      <c r="D836" s="2">
+        <v>4.32</v>
+      </c>
+      <c r="E836" s="2">
+        <v>63.6</v>
+      </c>
+      <c r="F836" s="2">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="G836" s="2">
+        <f t="shared" si="474"/>
+        <v>6.36</v>
+      </c>
+      <c r="H836" s="2">
+        <f t="shared" si="473"/>
+        <v>7.69</v>
+      </c>
+      <c r="I836" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J836" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="837" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A837" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B837" s="2">
+        <v>13</v>
+      </c>
+      <c r="C837" s="2">
+        <v>90</v>
+      </c>
+      <c r="D837" s="2">
+        <v>5.6879999999999997</v>
+      </c>
+      <c r="E837" s="2">
+        <v>67.3</v>
+      </c>
+      <c r="F837" s="2">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="G837" s="2">
+        <f t="shared" si="474"/>
+        <v>6.7299999999999995</v>
+      </c>
+      <c r="H837" s="2">
+        <f t="shared" si="473"/>
+        <v>8.1900000000000013</v>
+      </c>
+      <c r="I837" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J837" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="838" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A838" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B838" s="2">
+        <v>13</v>
+      </c>
+      <c r="C838" s="2">
+        <v>91</v>
+      </c>
+      <c r="D838" s="2">
+        <v>4.9989999999999997</v>
+      </c>
+      <c r="E838" s="2">
+        <v>64.2</v>
+      </c>
+      <c r="F838" s="2">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="G838" s="2">
+        <f t="shared" si="474"/>
+        <v>6.42</v>
+      </c>
+      <c r="H838" s="2">
+        <f t="shared" si="473"/>
+        <v>7.94</v>
+      </c>
+      <c r="I838" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J838" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="839" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A839" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B839" s="2">
+        <v>13</v>
+      </c>
+      <c r="C839" s="2">
+        <v>92</v>
+      </c>
+      <c r="D839" s="2">
+        <v>4.3239999999999998</v>
+      </c>
+      <c r="E839" s="2">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="F839" s="2">
+        <v>79.3</v>
+      </c>
+      <c r="G839" s="2">
+        <f t="shared" si="474"/>
+        <v>6.4599999999999991</v>
+      </c>
+      <c r="H839" s="2">
+        <f t="shared" si="473"/>
+        <v>7.93</v>
+      </c>
+      <c r="I839" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J839" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="840" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A840" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B840" s="2">
+        <v>13</v>
+      </c>
+      <c r="C840" s="2">
+        <v>93</v>
+      </c>
+      <c r="D840" s="2">
+        <v>5.0949999999999998</v>
+      </c>
+      <c r="E840" s="2">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="F840" s="2">
+        <v>80.8</v>
+      </c>
+      <c r="G840" s="2">
+        <f t="shared" si="474"/>
+        <v>6.6099999999999994</v>
+      </c>
+      <c r="H840" s="2">
+        <f t="shared" si="473"/>
+        <v>8.08</v>
+      </c>
+      <c r="I840" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J840" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="841" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A841" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B841" s="2">
+        <v>13</v>
+      </c>
+      <c r="C841" s="2">
+        <v>94</v>
+      </c>
+      <c r="D841" s="2">
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="E841" s="2">
+        <v>68</v>
+      </c>
+      <c r="F841" s="2">
+        <v>82.9</v>
+      </c>
+      <c r="G841" s="2">
+        <f t="shared" si="474"/>
+        <v>6.8</v>
+      </c>
+      <c r="H841" s="2">
+        <f t="shared" si="473"/>
+        <v>8.2900000000000009</v>
+      </c>
+      <c r="I841" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J841" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="842" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A842" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B842" s="2">
+        <v>13</v>
+      </c>
+      <c r="C842" s="2">
+        <v>95</v>
+      </c>
+      <c r="D842" s="2">
+        <v>6.7249999999999996</v>
+      </c>
+      <c r="E842" s="2">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="F842" s="2">
+        <v>88.5</v>
+      </c>
+      <c r="G842" s="2">
+        <f t="shared" si="474"/>
+        <v>7.19</v>
+      </c>
+      <c r="H842" s="2">
+        <f t="shared" si="473"/>
+        <v>8.85</v>
+      </c>
+      <c r="I842" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J842" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="843" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A843" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B843" s="2">
+        <v>13</v>
+      </c>
+      <c r="C843" s="2">
+        <v>96</v>
+      </c>
+      <c r="D843" s="2">
+        <v>3.1920000000000002</v>
+      </c>
+      <c r="E843" s="2">
+        <v>56.4</v>
+      </c>
+      <c r="F843" s="2">
+        <v>70.5</v>
+      </c>
+      <c r="G843" s="2">
+        <f t="shared" si="474"/>
+        <v>5.64</v>
+      </c>
+      <c r="H843" s="2">
+        <f t="shared" si="473"/>
+        <v>7.05</v>
+      </c>
+      <c r="I843" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J843" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="844" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A844" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B844" s="2">
+        <v>13</v>
+      </c>
+      <c r="C844" s="2">
+        <v>97</v>
+      </c>
+      <c r="D844" s="2">
+        <v>1.069</v>
+      </c>
+      <c r="E844" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="F844" s="2">
+        <v>53.9</v>
+      </c>
+      <c r="G844" s="2">
+        <f t="shared" si="474"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H844" s="2">
+        <f t="shared" si="473"/>
+        <v>5.39</v>
+      </c>
+      <c r="I844" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J844" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="845" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A845" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B845" s="2">
+        <v>13</v>
+      </c>
+      <c r="C845" s="2">
+        <v>98</v>
+      </c>
+      <c r="D845" s="2">
+        <v>6.266</v>
+      </c>
+      <c r="E845" s="2">
+        <v>73</v>
+      </c>
+      <c r="F845" s="2">
+        <v>87.6</v>
+      </c>
+      <c r="G845" s="2">
+        <f t="shared" si="474"/>
+        <v>7.3</v>
+      </c>
+      <c r="H845" s="2">
+        <f t="shared" si="473"/>
+        <v>8.76</v>
+      </c>
+      <c r="I845" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J845" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="846" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A846" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B846" s="2">
+        <v>13</v>
+      </c>
+      <c r="C846" s="2">
+        <v>99</v>
+      </c>
+      <c r="D846" s="2">
+        <v>4.7910000000000004</v>
+      </c>
+      <c r="E846" s="2">
+        <v>66.7</v>
+      </c>
+      <c r="F846" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="G846" s="2">
+        <f t="shared" si="474"/>
+        <v>6.67</v>
+      </c>
+      <c r="H846" s="2">
+        <f t="shared" si="473"/>
+        <v>7.9799999999999995</v>
+      </c>
+      <c r="I846" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J846" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="847" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A847" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B847" s="2">
+        <v>13</v>
+      </c>
+      <c r="C847" s="2">
+        <v>100</v>
+      </c>
+      <c r="D847" s="2">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="E847" s="2">
+        <v>63.4</v>
+      </c>
+      <c r="F847" s="2">
+        <v>76</v>
+      </c>
+      <c r="G847" s="2">
+        <f t="shared" si="474"/>
+        <v>6.34</v>
+      </c>
+      <c r="H847" s="2">
+        <f t="shared" si="473"/>
+        <v>7.6</v>
+      </c>
+      <c r="I847" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J847" s="2">
+        <v>136804</v>
+      </c>
+    </row>
+    <row r="848" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A848" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B848" s="2">
+        <v>13</v>
+      </c>
+      <c r="C848" s="2">
+        <v>101</v>
+      </c>
+      <c r="D848" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="E848" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F848" s="2">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="G848" s="2">
+        <f t="shared" si="474"/>
+        <v>3.22</v>
+      </c>
+      <c r="H848" s="2">
+        <f t="shared" si="473"/>
+        <v>3.63</v>
+      </c>
+      <c r="I848" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J848" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="849" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A849" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B849" s="2">
+        <v>13</v>
+      </c>
+      <c r="C849" s="2">
+        <v>102</v>
+      </c>
+      <c r="D849" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="E849" s="2">
+        <v>43.3</v>
+      </c>
+      <c r="F849" s="2">
+        <v>54.8</v>
+      </c>
+      <c r="G849" s="2">
+        <f t="shared" si="474"/>
+        <v>4.33</v>
+      </c>
+      <c r="H849" s="2">
+        <f t="shared" si="473"/>
+        <v>5.4799999999999995</v>
+      </c>
+      <c r="I849" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J849" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="850" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A850" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B850" s="2">
+        <v>13</v>
+      </c>
+      <c r="C850" s="2">
+        <v>103</v>
+      </c>
+      <c r="D850" s="2">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="E850" s="2">
+        <v>45.8</v>
+      </c>
+      <c r="F850" s="2">
+        <v>53.6</v>
+      </c>
+      <c r="G850" s="2">
+        <f t="shared" si="474"/>
+        <v>4.58</v>
+      </c>
+      <c r="H850" s="2">
+        <f t="shared" si="473"/>
+        <v>5.36</v>
+      </c>
+      <c r="I850" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J850" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="851" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A851" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B851" s="2">
+        <v>13</v>
+      </c>
+      <c r="C851" s="2">
+        <v>104</v>
+      </c>
+      <c r="D851" s="2">
+        <v>3.234</v>
+      </c>
+      <c r="E851" s="2">
+        <v>55.6</v>
+      </c>
+      <c r="F851" s="2">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="G851" s="2">
+        <f t="shared" si="474"/>
+        <v>5.5600000000000005</v>
+      </c>
+      <c r="H851" s="2">
+        <f t="shared" si="473"/>
+        <v>6.7099999999999991</v>
+      </c>
+      <c r="I851" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J851" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="852" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A852" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B852" s="2">
+        <v>13</v>
+      </c>
+      <c r="C852" s="2">
+        <v>105</v>
+      </c>
+      <c r="D852" s="2">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="E852" s="2">
+        <v>43.9</v>
+      </c>
+      <c r="F852" s="2">
+        <v>50.3</v>
+      </c>
+      <c r="G852" s="2">
+        <f t="shared" si="474"/>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H852" s="2">
+        <f t="shared" si="473"/>
+        <v>5.0299999999999994</v>
+      </c>
+      <c r="I852" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J852" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="853" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A853" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B853" s="2">
+        <v>13</v>
+      </c>
+      <c r="C853" s="2">
+        <v>106</v>
+      </c>
+      <c r="D853" s="2">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="E853" s="2">
+        <v>32</v>
+      </c>
+      <c r="F853" s="2">
+        <v>35.9</v>
+      </c>
+      <c r="G853" s="2">
+        <f t="shared" si="474"/>
+        <v>3.2</v>
+      </c>
+      <c r="H853" s="2">
+        <f t="shared" si="473"/>
+        <v>3.59</v>
+      </c>
+      <c r="I853" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J853" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="854" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A854" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B854" s="2">
+        <v>13</v>
+      </c>
+      <c r="C854" s="2">
+        <v>107</v>
+      </c>
+      <c r="D854" s="2">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E854" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="F854" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="G854" s="2">
+        <f t="shared" si="474"/>
+        <v>2.57</v>
+      </c>
+      <c r="H854" s="2">
+        <f t="shared" si="473"/>
+        <v>2.7199999999999998</v>
+      </c>
+      <c r="I854" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J854" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="855" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A855" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B855" s="2">
+        <v>13</v>
+      </c>
+      <c r="C855" s="2">
+        <v>108</v>
+      </c>
+      <c r="D855" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="E855" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="F855" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="G855" s="2">
+        <f t="shared" si="474"/>
+        <v>2.4699999999999998</v>
+      </c>
+      <c r="H855" s="2">
+        <f t="shared" si="473"/>
+        <v>2.84</v>
+      </c>
+      <c r="I855" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J855" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="856" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A856" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B856" s="2">
+        <v>13</v>
+      </c>
+      <c r="C856" s="2">
+        <v>109</v>
+      </c>
+      <c r="D856" s="2">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="E856" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="F856" s="2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="G856" s="2">
+        <f t="shared" si="474"/>
+        <v>3.44</v>
+      </c>
+      <c r="H856" s="2">
+        <f t="shared" si="473"/>
+        <v>4.07</v>
+      </c>
+      <c r="I856" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J856" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="857" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A857" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B857" s="2">
+        <v>13</v>
+      </c>
+      <c r="C857" s="2">
+        <v>110</v>
+      </c>
+      <c r="D857" s="2">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="E857" s="2">
+        <v>43.3</v>
+      </c>
+      <c r="F857" s="2">
+        <v>49.5</v>
+      </c>
+      <c r="G857" s="2">
+        <f t="shared" si="474"/>
+        <v>4.33</v>
+      </c>
+      <c r="H857" s="2">
+        <f t="shared" si="473"/>
+        <v>4.95</v>
+      </c>
+      <c r="I857" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J857" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="858" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A858" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B858" s="2">
+        <v>13</v>
+      </c>
+      <c r="C858" s="2">
+        <v>111</v>
+      </c>
+      <c r="D858" s="2">
+        <v>2.1469999999999998</v>
+      </c>
+      <c r="E858" s="2">
+        <v>49.8</v>
+      </c>
+      <c r="F858" s="2">
+        <v>58.1</v>
+      </c>
+      <c r="G858" s="2">
+        <f t="shared" si="474"/>
+        <v>4.9799999999999995</v>
+      </c>
+      <c r="H858" s="2">
+        <f t="shared" si="473"/>
+        <v>5.8100000000000005</v>
+      </c>
+      <c r="I858" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J858" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="859" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A859" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B859" s="2">
+        <v>13</v>
+      </c>
+      <c r="C859" s="2">
+        <v>112</v>
+      </c>
+      <c r="D859" s="2">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E859" s="2">
+        <v>27.1</v>
+      </c>
+      <c r="F859" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="G859" s="2">
+        <f t="shared" si="474"/>
+        <v>2.71</v>
+      </c>
+      <c r="H859" s="2">
+        <f t="shared" si="473"/>
+        <v>2.96</v>
+      </c>
+      <c r="I859" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J859" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="860" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A860" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B860" s="2">
+        <v>13</v>
+      </c>
+      <c r="C860" s="2">
+        <v>113</v>
+      </c>
+      <c r="D860" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E860" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="F860" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="G860" s="2">
+        <f t="shared" si="474"/>
+        <v>2.75</v>
+      </c>
+      <c r="H860" s="2">
+        <f t="shared" si="473"/>
+        <v>2.91</v>
+      </c>
+      <c r="I860" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J860" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="861" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A861" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B861" s="2">
+        <v>13</v>
+      </c>
+      <c r="C861" s="2">
+        <v>114</v>
+      </c>
+      <c r="D861" s="2">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="E861" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="F861" s="2">
+        <v>48.6</v>
+      </c>
+      <c r="G861" s="2">
+        <f t="shared" si="474"/>
+        <v>4.05</v>
+      </c>
+      <c r="H861" s="2">
+        <f t="shared" si="473"/>
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="I861" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J861" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="862" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A862" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B862" s="2">
+        <v>13</v>
+      </c>
+      <c r="C862" s="2">
+        <v>115</v>
+      </c>
+      <c r="D862" s="2">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="E862" s="2">
+        <v>47.7</v>
+      </c>
+      <c r="F862" s="2">
+        <v>58.5</v>
+      </c>
+      <c r="G862" s="2">
+        <f t="shared" si="474"/>
+        <v>4.7700000000000005</v>
+      </c>
+      <c r="H862" s="2">
+        <f t="shared" si="473"/>
+        <v>5.85</v>
+      </c>
+      <c r="I862" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J862" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="863" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A863" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B863" s="2">
+        <v>13</v>
+      </c>
+      <c r="C863" s="2">
+        <v>116</v>
+      </c>
+      <c r="D863" s="2">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="E863" s="2">
+        <v>30</v>
+      </c>
+      <c r="F863" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="G863" s="2">
+        <f t="shared" si="474"/>
+        <v>3</v>
+      </c>
+      <c r="H863" s="2">
+        <f t="shared" si="473"/>
+        <v>3.3899999999999997</v>
+      </c>
+      <c r="I863" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J863" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="864" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A864" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B864" s="2">
+        <v>13</v>
+      </c>
+      <c r="C864" s="2">
+        <v>117</v>
+      </c>
+      <c r="D864" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E864" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="F864" s="2">
+        <v>29.2</v>
+      </c>
+      <c r="G864" s="2">
+        <f t="shared" si="474"/>
+        <v>2.66</v>
+      </c>
+      <c r="H864" s="2">
+        <f t="shared" si="473"/>
+        <v>2.92</v>
+      </c>
+      <c r="I864" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J864" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="865" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A865" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B865" s="2">
+        <v>13</v>
+      </c>
+      <c r="C865" s="2">
+        <v>118</v>
+      </c>
+      <c r="D865" s="2">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="E865" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="F865" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="G865" s="2">
+        <f t="shared" si="474"/>
+        <v>3.15</v>
+      </c>
+      <c r="H865" s="2">
+        <f t="shared" si="473"/>
+        <v>3.65</v>
+      </c>
+      <c r="I865" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J865" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="866" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A866" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B866" s="2">
+        <v>13</v>
+      </c>
+      <c r="C866" s="2">
+        <v>119</v>
+      </c>
+      <c r="D866" s="2">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="E866" s="2">
+        <v>48</v>
+      </c>
+      <c r="F866" s="2">
+        <v>57.2</v>
+      </c>
+      <c r="G866" s="2">
+        <f t="shared" si="474"/>
+        <v>4.8</v>
+      </c>
+      <c r="H866" s="2">
+        <f t="shared" si="473"/>
+        <v>5.7200000000000006</v>
+      </c>
+      <c r="I866" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J866" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="867" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A867" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B867" s="2">
+        <v>13</v>
+      </c>
+      <c r="C867" s="2">
+        <v>120</v>
+      </c>
+      <c r="D867" s="2">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="E867" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="F867" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="G867" s="2">
+        <f t="shared" si="474"/>
+        <v>4.04</v>
+      </c>
+      <c r="H867" s="2">
+        <f t="shared" si="473"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I867" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J867" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="868" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A868" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B868" s="2">
+        <v>13</v>
+      </c>
+      <c r="C868" s="2">
+        <v>121</v>
+      </c>
+      <c r="D868" s="2">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="E868" s="2">
+        <v>29.7</v>
+      </c>
+      <c r="F868" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="G868" s="2">
+        <f t="shared" si="474"/>
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="H868" s="2">
+        <f t="shared" si="473"/>
+        <v>3.44</v>
+      </c>
+      <c r="I868" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J868" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="869" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A869" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B869" s="2">
+        <v>13</v>
+      </c>
+      <c r="C869" s="2">
+        <v>122</v>
+      </c>
+      <c r="D869" s="2">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="E869" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="F869" s="2">
+        <v>36.6</v>
+      </c>
+      <c r="G869" s="2">
+        <f t="shared" si="474"/>
+        <v>3.09</v>
+      </c>
+      <c r="H869" s="2">
+        <f t="shared" si="473"/>
+        <v>3.66</v>
+      </c>
+      <c r="I869" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J869" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="870" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A870" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B870" s="2">
+        <v>13</v>
+      </c>
+      <c r="C870" s="2">
+        <v>123</v>
+      </c>
+      <c r="D870" s="2">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E870" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="F870" s="2">
+        <v>28.7</v>
+      </c>
+      <c r="G870" s="2">
+        <f t="shared" si="474"/>
+        <v>2.57</v>
+      </c>
+      <c r="H870" s="2">
+        <f t="shared" si="473"/>
+        <v>2.87</v>
+      </c>
+      <c r="I870" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J870" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="871" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A871" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B871" s="2">
+        <v>13</v>
+      </c>
+      <c r="C871" s="2">
+        <v>124</v>
+      </c>
+      <c r="D871" s="2">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E871" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="F871" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="G871" s="2">
+        <f t="shared" si="474"/>
+        <v>2.3600000000000003</v>
+      </c>
+      <c r="H871" s="2">
+        <f t="shared" si="473"/>
+        <v>2.57</v>
+      </c>
+      <c r="I871" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J871" s="2">
+        <v>136818</v>
+      </c>
+    </row>
+    <row r="872" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A872" s="2"/>
+      <c r="B872" s="2"/>
+      <c r="C872" s="2"/>
+      <c r="D872" s="2"/>
+      <c r="I872" s="3"/>
+      <c r="J872" s="2"/>
+    </row>
+    <row r="873" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A873" s="2"/>
+      <c r="B873" s="2"/>
+      <c r="C873" s="2"/>
+      <c r="D873" s="2"/>
+      <c r="I873" s="3"/>
+      <c r="J873" s="2"/>
+    </row>
+    <row r="874" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A874" s="2"/>
+      <c r="B874" s="2"/>
+      <c r="C874" s="2"/>
+      <c r="D874" s="2"/>
+      <c r="I874" s="3"/>
+      <c r="J874" s="2"/>
+    </row>
+    <row r="875" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A875" s="2"/>
+      <c r="B875" s="2"/>
+      <c r="C875" s="2"/>
+      <c r="D875" s="2"/>
+      <c r="I875" s="3"/>
+      <c r="J875" s="2"/>
+    </row>
+    <row r="876" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A876" s="2"/>
+      <c r="B876" s="2"/>
+      <c r="C876" s="2"/>
+      <c r="D876" s="2"/>
+      <c r="I876" s="3"/>
+      <c r="J876" s="2"/>
+    </row>
+    <row r="877" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A877" s="2"/>
+      <c r="B877" s="2"/>
+      <c r="C877" s="2"/>
+      <c r="D877" s="2"/>
+      <c r="I877" s="3"/>
+      <c r="J877" s="2"/>
+    </row>
+    <row r="878" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A878" s="2"/>
+      <c r="B878" s="2"/>
+      <c r="C878" s="2"/>
+      <c r="D878" s="2"/>
+      <c r="I878" s="3"/>
+      <c r="J878" s="2"/>
+    </row>
+    <row r="879" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A879" s="2"/>
+      <c r="B879" s="2"/>
+      <c r="C879" s="2"/>
+      <c r="D879" s="2"/>
+      <c r="I879" s="3"/>
+      <c r="J879" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
